--- a/data_month/zb/价格指数/居民消费价格分类指数(上年同月=100)/全国食品类居民消费价格指数(上年同月=100).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上年同月=100)/全国食品类居民消费价格指数(上年同月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,7585 +478,7585 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
+          <t>2000-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.2</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>90.90000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="E2" t="n">
-        <v>96.3</v>
+        <v>94.3</v>
       </c>
       <c r="F2" t="n">
-        <v>90.7</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>96.3</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>90.8</v>
+        <v>121.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
+          <t>2000-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101</v>
+        <v>99.7</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>92.8</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>97.8</v>
+        <v>95.2</v>
       </c>
       <c r="F3" t="n">
-        <v>93.40000000000001</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>99</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>106.7</v>
+        <v>139.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年12月</t>
+          <t>2000-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.4</v>
+        <v>100.9</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>95.40000000000001</v>
+        <v>86.5</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="F4" t="n">
-        <v>96.59999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="G4" t="n">
-        <v>99.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>105.1</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年1月</t>
+          <t>2000-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>96.90000000000001</v>
+        <v>105</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>87.8</v>
+        <v>86.3</v>
       </c>
       <c r="E5" t="n">
-        <v>94.3</v>
+        <v>100.1</v>
       </c>
       <c r="F5" t="n">
-        <v>79.90000000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>96.90000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>121.7</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2000年2月</t>
+          <t>2000-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99.7</v>
+        <v>106</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>87.40000000000001</v>
+        <v>86.2</v>
       </c>
       <c r="E6" t="n">
-        <v>95.2</v>
+        <v>103</v>
       </c>
       <c r="F6" t="n">
-        <v>75.59999999999999</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>98.59999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>139.8</v>
+        <v>94.09999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2000年3月</t>
+          <t>2000-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.9</v>
+        <v>104.6</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>86.5</v>
+        <v>86.3</v>
       </c>
       <c r="E7" t="n">
-        <v>95.5</v>
+        <v>104</v>
       </c>
       <c r="F7" t="n">
-        <v>74.8</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>96.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>123</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2000年4月</t>
+          <t>2000-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>105</v>
+        <v>103.6</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>86.3</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>100.1</v>
+        <v>102.6</v>
       </c>
       <c r="F8" t="n">
-        <v>77.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="G8" t="n">
-        <v>96.09999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>100.7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2000年5月</t>
+          <t>2000-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>106</v>
+        <v>101.9</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>86.2</v>
+        <v>87.8</v>
       </c>
       <c r="E9" t="n">
-        <v>103</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>80.59999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="G9" t="n">
-        <v>96.90000000000001</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>94.09999999999999</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2000年6月</t>
+          <t>2000-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104.6</v>
+        <v>100.6</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>86.3</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>104</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>80.40000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>97.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>95.5</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2000年7月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.6</v>
+        <v>99.2</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>86.59999999999999</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>102.6</v>
+        <v>96.3</v>
       </c>
       <c r="F11" t="n">
-        <v>82.3</v>
+        <v>90.7</v>
       </c>
       <c r="G11" t="n">
-        <v>97.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>93</v>
+        <v>90.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2000年8月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>101.9</v>
+        <v>101</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>87.8</v>
+        <v>92.8</v>
       </c>
       <c r="E12" t="n">
-        <v>97.40000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="F12" t="n">
-        <v>92.8</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>97.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>99.3</v>
+        <v>106.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2000年9月</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.6</v>
+        <v>101.4</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>88.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>95.59999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>89.59999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>96.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>95.7</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>97.5</v>
+        <v>102.4971</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>101.4</v>
+        <v>96.6164</v>
       </c>
       <c r="E14" t="n">
-        <v>101.1</v>
+        <v>102.7517</v>
       </c>
       <c r="F14" t="n">
-        <v>111.9</v>
+        <v>97.4606</v>
       </c>
       <c r="G14" t="n">
-        <v>100.8</v>
+        <v>99.6174</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>106.2</v>
+        <v>95.2313</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>96.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="E15" t="n">
         <v>101.2</v>
       </c>
-      <c r="E15" t="n">
-        <v>100.6</v>
-      </c>
       <c r="F15" t="n">
-        <v>108.4</v>
+        <v>96.8</v>
       </c>
       <c r="G15" t="n">
-        <v>99.2</v>
+        <v>96.7</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>92.8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.3</v>
+        <v>98.8</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>100</v>
+        <v>97.8</v>
       </c>
       <c r="E16" t="n">
-        <v>100.6</v>
+        <v>102.1</v>
       </c>
       <c r="F16" t="n">
-        <v>107.3</v>
+        <v>101.3</v>
       </c>
       <c r="G16" t="n">
-        <v>99.2</v>
+        <v>99</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>95</v>
+        <v>91.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2001年1月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>102.4971</v>
+        <v>97.3</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>96.6164</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>102.7517</v>
+        <v>102.7</v>
       </c>
       <c r="F17" t="n">
-        <v>97.4606</v>
+        <v>105.8</v>
       </c>
       <c r="G17" t="n">
-        <v>99.6174</v>
+        <v>101.3</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>95.2313</v>
+        <v>108.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>97.5</v>
+        <v>95.2</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>96.7</v>
+        <v>99</v>
       </c>
       <c r="E18" t="n">
-        <v>101.2</v>
+        <v>102.8</v>
       </c>
       <c r="F18" t="n">
-        <v>96.8</v>
+        <v>107.6</v>
       </c>
       <c r="G18" t="n">
-        <v>96.7</v>
+        <v>101.7</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>80</v>
+        <v>115.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.8</v>
+        <v>95</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>97.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>102.1</v>
+        <v>102.3</v>
       </c>
       <c r="F19" t="n">
-        <v>101.3</v>
+        <v>109</v>
       </c>
       <c r="G19" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>91.8</v>
+        <v>115.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.3</v>
+        <v>96.2</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>98.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="E20" t="n">
-        <v>102.7</v>
+        <v>101.8</v>
       </c>
       <c r="F20" t="n">
-        <v>105.8</v>
+        <v>113.1</v>
       </c>
       <c r="G20" t="n">
-        <v>101.3</v>
+        <v>101.5</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>108.7</v>
+        <v>122.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>95.2</v>
+        <v>96</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>99</v>
+        <v>100.4</v>
       </c>
       <c r="E21" t="n">
-        <v>102.8</v>
+        <v>100.9</v>
       </c>
       <c r="F21" t="n">
-        <v>107.6</v>
+        <v>104.9</v>
       </c>
       <c r="G21" t="n">
-        <v>101.7</v>
+        <v>100.2</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>115.4</v>
+        <v>111.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95</v>
+        <v>95.8</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>99.40000000000001</v>
+        <v>101.2</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3</v>
+        <v>100.8</v>
       </c>
       <c r="F22" t="n">
-        <v>109</v>
+        <v>109.7</v>
       </c>
       <c r="G22" t="n">
-        <v>101</v>
+        <v>100.3</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>115.3</v>
+        <v>108.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>96.2</v>
+        <v>97.5</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>101.4</v>
       </c>
       <c r="E23" t="n">
-        <v>101.8</v>
+        <v>101.1</v>
       </c>
       <c r="F23" t="n">
-        <v>113.1</v>
+        <v>111.9</v>
       </c>
       <c r="G23" t="n">
-        <v>101.5</v>
+        <v>100.8</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>122.8</v>
+        <v>106.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>96</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>100.4</v>
+        <v>101.2</v>
       </c>
       <c r="E24" t="n">
-        <v>100.9</v>
+        <v>100.6</v>
       </c>
       <c r="F24" t="n">
-        <v>104.9</v>
+        <v>108.4</v>
       </c>
       <c r="G24" t="n">
-        <v>100.2</v>
+        <v>99.2</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>111.9</v>
+        <v>92.8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.8</v>
+        <v>97.3</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>101.2</v>
+        <v>100</v>
       </c>
       <c r="E25" t="n">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
       <c r="F25" t="n">
-        <v>109.7</v>
+        <v>107.3</v>
       </c>
       <c r="G25" t="n">
-        <v>100.3</v>
+        <v>99.2</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>108.4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>96.8</v>
+        <v>92.8</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>97.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="E26" t="n">
-        <v>99</v>
+        <v>98.2</v>
       </c>
       <c r="F26" t="n">
-        <v>96.09999999999999</v>
+        <v>108.4</v>
       </c>
       <c r="G26" t="n">
-        <v>99.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>105.9</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>97.7</v>
+        <v>99</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>97.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>99.3</v>
+        <v>101.3</v>
       </c>
       <c r="F27" t="n">
-        <v>97.59999999999999</v>
+        <v>113.1</v>
       </c>
       <c r="G27" t="n">
-        <v>99.90000000000001</v>
+        <v>100.6</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>107.1</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="E28" t="n">
-        <v>99.7</v>
+        <v>100.4</v>
       </c>
       <c r="F28" t="n">
-        <v>98.09999999999999</v>
+        <v>109.2</v>
       </c>
       <c r="G28" t="n">
-        <v>100.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>108.1</v>
+        <v>88.7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2002年1月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>92.8</v>
+        <v>94.8</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="E29" t="n">
         <v>99.3</v>
       </c>
-      <c r="E29" t="n">
-        <v>98.2</v>
-      </c>
       <c r="F29" t="n">
-        <v>108.4</v>
+        <v>104.9</v>
       </c>
       <c r="G29" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>94.8</v>
+        <v>84.40000000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
+        <v>99</v>
+      </c>
+      <c r="E30" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="E30" t="n">
-        <v>101.3</v>
-      </c>
       <c r="F30" t="n">
-        <v>113.1</v>
+        <v>104.6</v>
       </c>
       <c r="G30" t="n">
-        <v>100.6</v>
+        <v>98.5</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>98.59999999999999</v>
+        <v>92.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>98.8</v>
+        <v>98.2</v>
       </c>
       <c r="E31" t="n">
-        <v>100.4</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>109.2</v>
+        <v>104.9</v>
       </c>
       <c r="G31" t="n">
-        <v>99.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>88.7</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>94.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>98.90000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>104.9</v>
+        <v>99.2</v>
       </c>
       <c r="G32" t="n">
-        <v>98</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>84.40000000000001</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>96</v>
+        <v>97.5</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>99</v>
+        <v>97.7</v>
       </c>
       <c r="E33" t="n">
         <v>99.40000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>104.6</v>
+        <v>100.4</v>
       </c>
       <c r="G33" t="n">
-        <v>98.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>92.7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.3</v>
+        <v>98</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>98.2</v>
+        <v>97.3</v>
       </c>
       <c r="E34" t="n">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>104.9</v>
+        <v>97.8</v>
       </c>
       <c r="G34" t="n">
         <v>99.8</v>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>100.4</v>
+        <v>103.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>96.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>97.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>99.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="F35" t="n">
-        <v>99.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>99.09999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>96.3</v>
+        <v>105.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>97.5</v>
+        <v>97.7</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="E36" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="F36" t="n">
-        <v>100.4</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>103</v>
+        <v>107.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>98</v>
+        <v>98.5</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>97.3</v>
+        <v>98.7</v>
       </c>
       <c r="E37" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="F37" t="n">
-        <v>97.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>99.8</v>
+        <v>100.5</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>103.4</v>
+        <v>108.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>101.9</v>
+        <v>99.84</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>103.2</v>
+        <v>99.54000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>108.1</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>105.3</v>
+        <v>95.94</v>
       </c>
       <c r="G38" t="n">
-        <v>105.1</v>
+        <v>102.38</v>
       </c>
       <c r="H38" t="n">
-        <v>105.1</v>
+        <v>103.9</v>
       </c>
       <c r="I38" t="n">
-        <v>116</v>
+        <v>124.19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>102.2</v>
+        <v>97.5</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>110.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>112.4</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>114.4</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>108.1</v>
+        <v>101.8</v>
       </c>
       <c r="H39" t="n">
-        <v>101.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="I39" t="n">
-        <v>119.4</v>
+        <v>130.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>102.5195</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>113.3188</v>
+        <v>99.5</v>
       </c>
       <c r="E40" t="n">
-        <v>112.1386</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>114.6513</v>
+        <v>93.2</v>
       </c>
       <c r="G40" t="n">
-        <v>108.5757</v>
+        <v>103.2</v>
       </c>
       <c r="H40" t="n">
-        <v>101.3</v>
+        <v>92.2</v>
       </c>
       <c r="I40" t="n">
-        <v>120.46</v>
+        <v>150.7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2003年1月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>99.84</v>
+        <v>100.1564</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>99.54000000000001</v>
+        <v>99.60209999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>99.98999999999999</v>
+        <v>99.4449</v>
       </c>
       <c r="F41" t="n">
-        <v>95.94</v>
+        <v>94.2161</v>
       </c>
       <c r="G41" t="n">
-        <v>102.38</v>
+        <v>103.1802</v>
       </c>
       <c r="H41" t="n">
-        <v>103.9</v>
+        <v>93.3</v>
       </c>
       <c r="I41" t="n">
-        <v>124.19</v>
+        <v>143.9259</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>97.5</v>
+        <v>98.89960000000001</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>99.40000000000001</v>
+        <v>100.3903</v>
       </c>
       <c r="E42" t="n">
-        <v>98.40000000000001</v>
+        <v>99.6199</v>
       </c>
       <c r="F42" t="n">
-        <v>92.09999999999999</v>
+        <v>93.2501</v>
       </c>
       <c r="G42" t="n">
-        <v>101.8</v>
+        <v>101.8573</v>
       </c>
       <c r="H42" t="n">
-        <v>96.09999999999999</v>
+        <v>105.3</v>
       </c>
       <c r="I42" t="n">
-        <v>130.2</v>
+        <v>118.2557</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>99.5</v>
+        <v>100.5</v>
       </c>
       <c r="E43" t="n">
-        <v>98.59999999999999</v>
+        <v>100.5</v>
       </c>
       <c r="F43" t="n">
-        <v>93.2</v>
+        <v>90.5</v>
       </c>
       <c r="G43" t="n">
-        <v>103.2</v>
+        <v>100.4</v>
       </c>
       <c r="H43" t="n">
-        <v>92.2</v>
+        <v>105</v>
       </c>
       <c r="I43" t="n">
-        <v>150.7</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100.1564</v>
+        <v>100.1373</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>99.60209999999999</v>
+        <v>100.3416</v>
       </c>
       <c r="E44" t="n">
-        <v>99.4449</v>
+        <v>102.2285</v>
       </c>
       <c r="F44" t="n">
-        <v>94.2161</v>
+        <v>92.7594</v>
       </c>
       <c r="G44" t="n">
-        <v>103.1802</v>
+        <v>101.0237</v>
       </c>
       <c r="H44" t="n">
-        <v>93.3</v>
+        <v>105.2</v>
       </c>
       <c r="I44" t="n">
-        <v>143.9259</v>
+        <v>99.33580000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>98.89960000000001</v>
+        <v>101.1</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>100.3903</v>
+        <v>100.4</v>
       </c>
       <c r="E45" t="n">
-        <v>99.6199</v>
+        <v>103.5</v>
       </c>
       <c r="F45" t="n">
-        <v>93.2501</v>
+        <v>96</v>
       </c>
       <c r="G45" t="n">
-        <v>101.8573</v>
+        <v>102.2</v>
       </c>
       <c r="H45" t="n">
-        <v>105.3</v>
+        <v>114.4</v>
       </c>
       <c r="I45" t="n">
-        <v>118.2557</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.8</v>
+        <v>101.946</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>100.5</v>
+        <v>100.7305</v>
       </c>
       <c r="E46" t="n">
-        <v>100.5</v>
+        <v>105.0895</v>
       </c>
       <c r="F46" t="n">
-        <v>90.5</v>
+        <v>100.8623</v>
       </c>
       <c r="G46" t="n">
-        <v>100.4</v>
+        <v>103.1658</v>
       </c>
       <c r="H46" t="n">
-        <v>105</v>
+        <v>107.6</v>
       </c>
       <c r="I46" t="n">
-        <v>97.09999999999999</v>
+        <v>111.9588</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>100.1373</v>
+        <v>101.9</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>100.3416</v>
+        <v>103.2</v>
       </c>
       <c r="E47" t="n">
-        <v>102.2285</v>
+        <v>108.1</v>
       </c>
       <c r="F47" t="n">
-        <v>92.7594</v>
+        <v>105.3</v>
       </c>
       <c r="G47" t="n">
-        <v>101.0237</v>
+        <v>105.1</v>
       </c>
       <c r="H47" t="n">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="I47" t="n">
-        <v>99.33580000000001</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>101.1</v>
+        <v>102.2</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>100.4</v>
+        <v>110.8</v>
       </c>
       <c r="E48" t="n">
-        <v>103.5</v>
+        <v>112.4</v>
       </c>
       <c r="F48" t="n">
-        <v>96</v>
+        <v>114.4</v>
       </c>
       <c r="G48" t="n">
-        <v>102.2</v>
+        <v>108.1</v>
       </c>
       <c r="H48" t="n">
-        <v>114.4</v>
+        <v>101.2</v>
       </c>
       <c r="I48" t="n">
-        <v>104.9</v>
+        <v>119.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>101.946</v>
+        <v>102.5195</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>100.7305</v>
+        <v>113.3188</v>
       </c>
       <c r="E49" t="n">
-        <v>105.0895</v>
+        <v>112.1386</v>
       </c>
       <c r="F49" t="n">
-        <v>100.8623</v>
+        <v>114.6513</v>
       </c>
       <c r="G49" t="n">
-        <v>103.1658</v>
+        <v>108.5757</v>
       </c>
       <c r="H49" t="n">
-        <v>107.6</v>
+        <v>101.3</v>
       </c>
       <c r="I49" t="n">
-        <v>111.9588</v>
+        <v>120.46</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>113.1951</v>
+        <v>105.9</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>128.68</v>
+        <v>114.5</v>
       </c>
       <c r="E50" t="n">
-        <v>118.8569</v>
+        <v>114.6</v>
       </c>
       <c r="F50" t="n">
-        <v>119.4155</v>
+        <v>115.7</v>
       </c>
       <c r="G50" t="n">
-        <v>110.0211</v>
+        <v>108</v>
       </c>
       <c r="H50" t="n">
-        <v>100.5</v>
+        <v>104.2</v>
       </c>
       <c r="I50" t="n">
-        <v>90.5334</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>111.8005</v>
+        <v>104.3082</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>119.2292</v>
+        <v>117.4921</v>
       </c>
       <c r="E51" t="n">
-        <v>112.6477</v>
+        <v>110.9163</v>
       </c>
       <c r="F51" t="n">
-        <v>108.8117</v>
+        <v>114.0291</v>
       </c>
       <c r="G51" t="n">
-        <v>105.9471</v>
+        <v>105.5712</v>
       </c>
       <c r="H51" t="n">
-        <v>102</v>
+        <v>100.4</v>
       </c>
       <c r="I51" t="n">
-        <v>85.55370000000001</v>
+        <v>89.57299999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>111.3457</v>
+        <v>110.0555</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>115.7329</v>
+        <v>129.9735</v>
       </c>
       <c r="E52" t="n">
-        <v>111.499</v>
+        <v>114.6248</v>
       </c>
       <c r="F52" t="n">
-        <v>111.0575</v>
+        <v>117.6456</v>
       </c>
       <c r="G52" t="n">
-        <v>104.9033</v>
+        <v>107.86</v>
       </c>
       <c r="H52" t="n">
-        <v>100.1</v>
+        <v>103.6</v>
       </c>
       <c r="I52" t="n">
-        <v>84.5958</v>
+        <v>84.755</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2004年1月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>105.9</v>
+        <v>113.8829</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>114.5</v>
+        <v>133.8662</v>
       </c>
       <c r="E53" t="n">
-        <v>114.6</v>
+        <v>118.211</v>
       </c>
       <c r="F53" t="n">
-        <v>115.7</v>
+        <v>121.4666</v>
       </c>
       <c r="G53" t="n">
-        <v>108</v>
+        <v>110.1553</v>
       </c>
       <c r="H53" t="n">
-        <v>104.2</v>
+        <v>109.1</v>
       </c>
       <c r="I53" t="n">
-        <v>100.6</v>
+        <v>85.1772</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>104.3082</v>
+        <v>117.5127</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>117.4921</v>
+        <v>132.2985</v>
       </c>
       <c r="E54" t="n">
-        <v>110.9163</v>
+        <v>119.7372</v>
       </c>
       <c r="F54" t="n">
-        <v>114.0291</v>
+        <v>120.1139</v>
       </c>
       <c r="G54" t="n">
-        <v>105.5712</v>
+        <v>111.8065</v>
       </c>
       <c r="H54" t="n">
-        <v>100.4</v>
+        <v>106.8</v>
       </c>
       <c r="I54" t="n">
-        <v>89.57299999999999</v>
+        <v>93.98099999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>110.0555</v>
+        <v>118.4896</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>129.9735</v>
+        <v>132.0207</v>
       </c>
       <c r="E55" t="n">
-        <v>114.6248</v>
+        <v>122.1387</v>
       </c>
       <c r="F55" t="n">
-        <v>117.6456</v>
+        <v>130.2501</v>
       </c>
       <c r="G55" t="n">
-        <v>107.86</v>
+        <v>113.956</v>
       </c>
       <c r="H55" t="n">
-        <v>103.6</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="I55" t="n">
-        <v>84.755</v>
+        <v>110.2173</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>113.8829</v>
+        <v>117.2854</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>133.8662</v>
+        <v>131.7838</v>
       </c>
       <c r="E56" t="n">
-        <v>118.211</v>
+        <v>122.855</v>
       </c>
       <c r="F56" t="n">
-        <v>121.4666</v>
+        <v>131.4184</v>
       </c>
       <c r="G56" t="n">
-        <v>110.1553</v>
+        <v>114.5998</v>
       </c>
       <c r="H56" t="n">
-        <v>109.1</v>
+        <v>101.7</v>
       </c>
       <c r="I56" t="n">
-        <v>85.1772</v>
+        <v>113.4423</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>117.5127</v>
+        <v>115.5999</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>132.2985</v>
+        <v>131.7523</v>
       </c>
       <c r="E57" t="n">
-        <v>119.7372</v>
+        <v>123.5149</v>
       </c>
       <c r="F57" t="n">
-        <v>120.1139</v>
+        <v>128.6758</v>
       </c>
       <c r="G57" t="n">
-        <v>111.8065</v>
+        <v>113.9218</v>
       </c>
       <c r="H57" t="n">
-        <v>106.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I57" t="n">
-        <v>93.98099999999999</v>
+        <v>105.7687</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>118.4896</v>
+        <v>113.9086</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>132.0207</v>
+        <v>131.7306</v>
       </c>
       <c r="E58" t="n">
-        <v>122.1387</v>
+        <v>122.4475</v>
       </c>
       <c r="F58" t="n">
-        <v>130.2501</v>
+        <v>127.1823</v>
       </c>
       <c r="G58" t="n">
-        <v>113.956</v>
+        <v>112.9536</v>
       </c>
       <c r="H58" t="n">
-        <v>99.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="I58" t="n">
-        <v>110.2173</v>
+        <v>101.0241</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>117.2854</v>
+        <v>113.1951</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>131.7838</v>
+        <v>128.68</v>
       </c>
       <c r="E59" t="n">
-        <v>122.855</v>
+        <v>118.8569</v>
       </c>
       <c r="F59" t="n">
-        <v>131.4184</v>
+        <v>119.4155</v>
       </c>
       <c r="G59" t="n">
-        <v>114.5998</v>
+        <v>110.0211</v>
       </c>
       <c r="H59" t="n">
-        <v>101.7</v>
+        <v>100.5</v>
       </c>
       <c r="I59" t="n">
-        <v>113.4423</v>
+        <v>90.5334</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>115.5999</v>
+        <v>111.8005</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>131.7523</v>
+        <v>119.2292</v>
       </c>
       <c r="E60" t="n">
-        <v>123.5149</v>
+        <v>112.6477</v>
       </c>
       <c r="F60" t="n">
-        <v>128.6758</v>
+        <v>108.8117</v>
       </c>
       <c r="G60" t="n">
-        <v>113.9218</v>
+        <v>105.9471</v>
       </c>
       <c r="H60" t="n">
-        <v>99.40000000000001</v>
+        <v>102</v>
       </c>
       <c r="I60" t="n">
-        <v>105.7687</v>
+        <v>85.55370000000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>113.9086</v>
+        <v>111.3457</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>131.7306</v>
+        <v>115.7329</v>
       </c>
       <c r="E61" t="n">
-        <v>122.4475</v>
+        <v>111.499</v>
       </c>
       <c r="F61" t="n">
-        <v>127.1823</v>
+        <v>111.0575</v>
       </c>
       <c r="G61" t="n">
-        <v>112.9536</v>
+        <v>104.9033</v>
       </c>
       <c r="H61" t="n">
-        <v>98</v>
+        <v>100.1</v>
       </c>
       <c r="I61" t="n">
-        <v>101.0241</v>
+        <v>84.5958</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
+          <t>2005-01</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>104.39</v>
+        <v>108.9032</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>99.24939999999999</v>
+        <v>114.2061</v>
       </c>
       <c r="E62" t="n">
-        <v>95.125</v>
+        <v>109.3282</v>
       </c>
       <c r="F62" t="n">
-        <v>98.3241</v>
+        <v>110.7139</v>
       </c>
       <c r="G62" t="n">
-        <v>101.3176</v>
+        <v>104.04</v>
       </c>
       <c r="H62" t="n">
-        <v>111.0906</v>
+        <v>92.8</v>
       </c>
       <c r="I62" t="n">
-        <v>117.4749</v>
+        <v>89.81180000000001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>104.6566</v>
+        <v>115.9277</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>99.87390000000001</v>
+        <v>111.6431</v>
       </c>
       <c r="E63" t="n">
-        <v>93.6699</v>
+        <v>114.9171</v>
       </c>
       <c r="F63" t="n">
-        <v>97.8066</v>
+        <v>116.034</v>
       </c>
       <c r="G63" t="n">
-        <v>101.5841</v>
+        <v>108.8044</v>
       </c>
       <c r="H63" t="n">
-        <v>113.9161</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="I63" t="n">
-        <v>121.9572</v>
+        <v>113.1242</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>105.5777</v>
+        <v>111.4496</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>100.652</v>
+        <v>101.2635</v>
       </c>
       <c r="E64" t="n">
-        <v>93.6949</v>
+        <v>112.1618</v>
       </c>
       <c r="F64" t="n">
-        <v>93.7782</v>
+        <v>110.8316</v>
       </c>
       <c r="G64" t="n">
-        <v>102.2365</v>
+        <v>105.5766</v>
       </c>
       <c r="H64" t="n">
-        <v>114.5526</v>
+        <v>93.7</v>
       </c>
       <c r="I64" t="n">
-        <v>125.8061</v>
+        <v>108.9649</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2005年1月</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>108.9032</v>
+        <v>106.822</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>114.2061</v>
+        <v>98.274</v>
       </c>
       <c r="E65" t="n">
-        <v>109.3282</v>
+        <v>108.6175</v>
       </c>
       <c r="F65" t="n">
-        <v>110.7139</v>
+        <v>106.8034</v>
       </c>
       <c r="G65" t="n">
-        <v>104.04</v>
+        <v>103.0826</v>
       </c>
       <c r="H65" t="n">
-        <v>92.8</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="I65" t="n">
-        <v>89.81180000000001</v>
+        <v>106.4427</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>115.9277</v>
+        <v>102.9633</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>111.6431</v>
+        <v>98.4318</v>
       </c>
       <c r="E66" t="n">
-        <v>114.9171</v>
+        <v>106.9392</v>
       </c>
       <c r="F66" t="n">
-        <v>116.034</v>
+        <v>111.891</v>
       </c>
       <c r="G66" t="n">
-        <v>108.8044</v>
+        <v>102.8114</v>
       </c>
       <c r="H66" t="n">
-        <v>97.40000000000001</v>
+        <v>90</v>
       </c>
       <c r="I66" t="n">
-        <v>113.1242</v>
+        <v>110.1172</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>111.4496</v>
+        <v>101.599</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>101.2635</v>
+        <v>98.91379999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>112.1618</v>
+        <v>103.9714</v>
       </c>
       <c r="F67" t="n">
-        <v>110.8316</v>
+        <v>108.1032</v>
       </c>
       <c r="G67" t="n">
-        <v>105.5766</v>
+        <v>102.1048</v>
       </c>
       <c r="H67" t="n">
-        <v>93.7</v>
+        <v>98.5</v>
       </c>
       <c r="I67" t="n">
-        <v>108.9649</v>
+        <v>108.8804</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>106.822</v>
+        <v>102.2916</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>98.274</v>
+        <v>99.1319</v>
       </c>
       <c r="E68" t="n">
-        <v>108.6175</v>
+        <v>100.9046</v>
       </c>
       <c r="F68" t="n">
-        <v>106.8034</v>
+        <v>105.4323</v>
       </c>
       <c r="G68" t="n">
-        <v>103.0826</v>
+        <v>102.32</v>
       </c>
       <c r="H68" t="n">
-        <v>88.59999999999999</v>
+        <v>111</v>
       </c>
       <c r="I68" t="n">
-        <v>106.4427</v>
+        <v>115.4654</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>102.9633</v>
+        <v>103.5148</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>98.4318</v>
+        <v>99.24339999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>106.9392</v>
+        <v>97.94450000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>111.891</v>
+        <v>101.7844</v>
       </c>
       <c r="G69" t="n">
-        <v>102.8114</v>
+        <v>100.8726</v>
       </c>
       <c r="H69" t="n">
-        <v>90</v>
+        <v>107.5437</v>
       </c>
       <c r="I69" t="n">
-        <v>110.1172</v>
+        <v>107.742</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>101.599</v>
+        <v>104.2676</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>98.91379999999999</v>
+        <v>99.10599999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>103.9714</v>
+        <v>96.3078</v>
       </c>
       <c r="F70" t="n">
-        <v>108.1032</v>
+        <v>98.0431</v>
       </c>
       <c r="G70" t="n">
-        <v>102.1048</v>
+        <v>100.3488</v>
       </c>
       <c r="H70" t="n">
-        <v>98.5</v>
+        <v>110.369</v>
       </c>
       <c r="I70" t="n">
-        <v>108.8804</v>
+        <v>104.8687</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>102.2916</v>
+        <v>104.39</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>99.1319</v>
+        <v>99.24939999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>100.9046</v>
+        <v>95.125</v>
       </c>
       <c r="F71" t="n">
-        <v>105.4323</v>
+        <v>98.3241</v>
       </c>
       <c r="G71" t="n">
-        <v>102.32</v>
+        <v>101.3176</v>
       </c>
       <c r="H71" t="n">
-        <v>111</v>
+        <v>111.0906</v>
       </c>
       <c r="I71" t="n">
-        <v>115.4654</v>
+        <v>117.4749</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>103.5148</v>
+        <v>104.6566</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>99.24339999999999</v>
+        <v>99.87390000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>97.94450000000001</v>
+        <v>93.6699</v>
       </c>
       <c r="F72" t="n">
-        <v>101.7844</v>
+        <v>97.8066</v>
       </c>
       <c r="G72" t="n">
-        <v>100.8726</v>
+        <v>101.5841</v>
       </c>
       <c r="H72" t="n">
-        <v>107.5437</v>
+        <v>113.9161</v>
       </c>
       <c r="I72" t="n">
-        <v>107.742</v>
+        <v>121.9572</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>104.2676</v>
+        <v>105.5777</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>99.10599999999999</v>
+        <v>100.652</v>
       </c>
       <c r="E73" t="n">
-        <v>96.3078</v>
+        <v>93.6949</v>
       </c>
       <c r="F73" t="n">
-        <v>98.0431</v>
+        <v>93.7782</v>
       </c>
       <c r="G73" t="n">
-        <v>100.3488</v>
+        <v>102.2365</v>
       </c>
       <c r="H73" t="n">
-        <v>110.369</v>
+        <v>114.5526</v>
       </c>
       <c r="I73" t="n">
-        <v>104.8687</v>
+        <v>125.8061</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-01</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>102.60560454</v>
+        <v>104.11311858</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>103.6737958</v>
+        <v>101.00317239</v>
       </c>
       <c r="E74" t="n">
-        <v>102.62359546</v>
+        <v>95.36806709</v>
       </c>
       <c r="F74" t="n">
-        <v>105.20025383</v>
+        <v>92.65441582</v>
       </c>
       <c r="G74" t="n">
-        <v>102.22263457</v>
+        <v>103.64803613</v>
       </c>
       <c r="H74" t="n">
-        <v>106.9704895</v>
+        <v>121.20307552</v>
       </c>
       <c r="I74" t="n">
-        <v>94.26443727</v>
+        <v>134.91077879</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>102.71738699</v>
+        <v>98.46991144</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
-        <v>104.68066093</v>
+        <v>100.97853916</v>
       </c>
       <c r="E75" t="n">
-        <v>107.60370199</v>
+        <v>93.3639453</v>
       </c>
       <c r="F75" t="n">
-        <v>110.34117188</v>
+        <v>87.67012894</v>
       </c>
       <c r="G75" t="n">
-        <v>103.68370771</v>
+        <v>101.18341001</v>
       </c>
       <c r="H75" t="n">
-        <v>102.30119112</v>
+        <v>121.66157916</v>
       </c>
       <c r="I75" t="n">
-        <v>95.76268713</v>
+        <v>114.61957847</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>102.33594326</v>
+        <v>97.60687921</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
-        <v>106.92745711</v>
+        <v>100.93536509</v>
       </c>
       <c r="E76" t="n">
-        <v>113.36188207</v>
+        <v>92.17782022</v>
       </c>
       <c r="F76" t="n">
-        <v>117.84769547</v>
+        <v>90.15134363</v>
       </c>
       <c r="G76" t="n">
-        <v>106.27712996</v>
+        <v>100.83182734</v>
       </c>
       <c r="H76" t="n">
-        <v>100.71331456</v>
+        <v>127.40537689</v>
       </c>
       <c r="I76" t="n">
-        <v>101.0464417</v>
+        <v>110.00984713</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2006年1月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>104.11311858</v>
+        <v>98.91464483</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
-        <v>101.00317239</v>
+        <v>101.24327594</v>
       </c>
       <c r="E77" t="n">
-        <v>95.36806709</v>
+        <v>91.33661179000001</v>
       </c>
       <c r="F77" t="n">
-        <v>92.65441582</v>
+        <v>90.97136657</v>
       </c>
       <c r="G77" t="n">
-        <v>103.64803613</v>
+        <v>101.84195328</v>
       </c>
       <c r="H77" t="n">
-        <v>121.20307552</v>
+        <v>134.85749894</v>
       </c>
       <c r="I77" t="n">
-        <v>134.91077879</v>
+        <v>115.6189546</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>98.46991144</v>
+        <v>100.79916167</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
-        <v>100.97853916</v>
+        <v>101.73497504</v>
       </c>
       <c r="E78" t="n">
-        <v>93.3639453</v>
+        <v>90.7454802</v>
       </c>
       <c r="F78" t="n">
-        <v>87.67012894</v>
+        <v>87.52125775</v>
       </c>
       <c r="G78" t="n">
-        <v>101.18341001</v>
+        <v>101.94819923</v>
       </c>
       <c r="H78" t="n">
-        <v>121.66157916</v>
+        <v>139.70429423</v>
       </c>
       <c r="I78" t="n">
-        <v>114.61957847</v>
+        <v>114.58108062</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>97.60687921</v>
+        <v>101.52956325</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
-        <v>100.93536509</v>
+        <v>102.20116798</v>
       </c>
       <c r="E79" t="n">
-        <v>92.17782022</v>
+        <v>90.96204347</v>
       </c>
       <c r="F79" t="n">
-        <v>90.15134363</v>
+        <v>85.96716662999999</v>
       </c>
       <c r="G79" t="n">
-        <v>100.83182734</v>
+        <v>102.14993691</v>
       </c>
       <c r="H79" t="n">
-        <v>127.40537689</v>
+        <v>149.24627817</v>
       </c>
       <c r="I79" t="n">
-        <v>110.00984713</v>
+        <v>113.45925888</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>98.91464483</v>
+        <v>102.52550097</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="n">
-        <v>101.24327594</v>
+        <v>102.88346142</v>
       </c>
       <c r="E80" t="n">
-        <v>91.33661179000001</v>
+        <v>92.9148909</v>
       </c>
       <c r="F80" t="n">
-        <v>90.97136657</v>
+        <v>88.38368269</v>
       </c>
       <c r="G80" t="n">
-        <v>101.84195328</v>
+        <v>100.61846502</v>
       </c>
       <c r="H80" t="n">
-        <v>134.85749894</v>
+        <v>131.20900723</v>
       </c>
       <c r="I80" t="n">
-        <v>115.6189546</v>
+        <v>96.51450186</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>100.79916167</v>
+        <v>102.42109781</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
-        <v>101.73497504</v>
+        <v>103.10899964</v>
       </c>
       <c r="E81" t="n">
-        <v>90.7454802</v>
+        <v>96.87696256</v>
       </c>
       <c r="F81" t="n">
-        <v>87.52125775</v>
+        <v>96.31875856000001</v>
       </c>
       <c r="G81" t="n">
-        <v>101.94819923</v>
+        <v>101.40711624</v>
       </c>
       <c r="H81" t="n">
-        <v>139.70429423</v>
+        <v>117.38402474</v>
       </c>
       <c r="I81" t="n">
-        <v>114.58108062</v>
+        <v>99.93033490000001</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>101.52956325</v>
+        <v>101.15441705</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
-        <v>102.20116798</v>
+        <v>103.41631413</v>
       </c>
       <c r="E82" t="n">
-        <v>90.96204347</v>
+        <v>99.45697851</v>
       </c>
       <c r="F82" t="n">
-        <v>85.96716662999999</v>
+        <v>100.58476258</v>
       </c>
       <c r="G82" t="n">
-        <v>102.14993691</v>
+        <v>102.42724926</v>
       </c>
       <c r="H82" t="n">
-        <v>149.24627817</v>
+        <v>108.89698009</v>
       </c>
       <c r="I82" t="n">
-        <v>113.45925888</v>
+        <v>107.75058053</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>102.52550097</v>
+        <v>102.60560454</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="n">
-        <v>102.88346142</v>
+        <v>103.6737958</v>
       </c>
       <c r="E83" t="n">
-        <v>92.9148909</v>
+        <v>102.62359546</v>
       </c>
       <c r="F83" t="n">
-        <v>88.38368269</v>
+        <v>105.20025383</v>
       </c>
       <c r="G83" t="n">
-        <v>100.61846502</v>
+        <v>102.22263457</v>
       </c>
       <c r="H83" t="n">
-        <v>131.20900723</v>
+        <v>106.9704895</v>
       </c>
       <c r="I83" t="n">
-        <v>96.51450186</v>
+        <v>94.26443727</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>102.42109781</v>
+        <v>102.71738699</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
-        <v>103.10899964</v>
+        <v>104.68066093</v>
       </c>
       <c r="E84" t="n">
-        <v>96.87696256</v>
+        <v>107.60370199</v>
       </c>
       <c r="F84" t="n">
-        <v>96.31875856000001</v>
+        <v>110.34117188</v>
       </c>
       <c r="G84" t="n">
-        <v>101.40711624</v>
+        <v>103.68370771</v>
       </c>
       <c r="H84" t="n">
-        <v>117.38402474</v>
+        <v>102.30119112</v>
       </c>
       <c r="I84" t="n">
-        <v>99.93033490000001</v>
+        <v>95.76268713</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>101.15441705</v>
+        <v>102.33594326</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>103.41631413</v>
+        <v>106.92745711</v>
       </c>
       <c r="E85" t="n">
-        <v>99.45697851</v>
+        <v>113.36188207</v>
       </c>
       <c r="F85" t="n">
-        <v>100.58476258</v>
+        <v>117.84769547</v>
       </c>
       <c r="G85" t="n">
-        <v>102.42724926</v>
+        <v>106.27712996</v>
       </c>
       <c r="H85" t="n">
-        <v>108.89698009</v>
+        <v>100.71331456</v>
       </c>
       <c r="I85" t="n">
-        <v>107.75058053</v>
+        <v>101.0464417</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-01</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>107</v>
+        <v>100.02662615</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="n">
-        <v>106.7</v>
+        <v>106.94678033</v>
       </c>
       <c r="E86" t="n">
-        <v>138.3</v>
+        <v>113.53477617</v>
       </c>
       <c r="F86" t="n">
-        <v>115</v>
+        <v>119.04844085</v>
       </c>
       <c r="G86" t="n">
-        <v>117.6</v>
+        <v>105.01988052</v>
       </c>
       <c r="H86" t="n">
-        <v>108.5</v>
+        <v>104.60584451</v>
       </c>
       <c r="I86" t="n">
-        <v>129.9</v>
+        <v>88.12209626000001</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>106.76678133</v>
+        <v>103.36937194</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="n">
-        <v>106.62824772</v>
+        <v>106.77424695</v>
       </c>
       <c r="E87" t="n">
-        <v>138.75122205</v>
+        <v>115.37885545</v>
       </c>
       <c r="F87" t="n">
-        <v>111.00662916</v>
+        <v>126.66593563</v>
       </c>
       <c r="G87" t="n">
-        <v>118.20517443</v>
+        <v>106.02241473</v>
       </c>
       <c r="H87" t="n">
-        <v>112.86271531</v>
+        <v>107.77625988</v>
       </c>
       <c r="I87" t="n">
-        <v>128.6473471</v>
+        <v>89.59738652</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>106.08567953</v>
+        <v>105.33331523</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
-        <v>105.52129965</v>
+        <v>106.43282313</v>
       </c>
       <c r="E88" t="n">
-        <v>138.76524686</v>
+        <v>116.52939914</v>
       </c>
       <c r="F88" t="n">
-        <v>105.44087421</v>
+        <v>127.01689914</v>
       </c>
       <c r="G88" t="n">
-        <v>116.70255479</v>
+        <v>107.71539229</v>
       </c>
       <c r="H88" t="n">
-        <v>113.84318757</v>
+        <v>106.05749607</v>
       </c>
       <c r="I88" t="n">
-        <v>109.48521484</v>
+        <v>102.27661084</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2007年1月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>100.02662615</v>
+        <v>104.12157768</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="n">
-        <v>106.94678033</v>
+        <v>106.07192864</v>
       </c>
       <c r="E89" t="n">
-        <v>113.53477617</v>
+        <v>117.57120842</v>
       </c>
       <c r="F89" t="n">
-        <v>119.04844085</v>
+        <v>127.18005323</v>
       </c>
       <c r="G89" t="n">
-        <v>105.01988052</v>
+        <v>107.051529</v>
       </c>
       <c r="H89" t="n">
-        <v>104.60584451</v>
+        <v>94.63033906</v>
       </c>
       <c r="I89" t="n">
-        <v>88.12209626000001</v>
+        <v>103.10084554</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>103.36937194</v>
+        <v>104.06866058</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
-        <v>106.77424695</v>
+        <v>105.904667</v>
       </c>
       <c r="E90" t="n">
-        <v>115.37885545</v>
+        <v>126.49371631</v>
       </c>
       <c r="F90" t="n">
-        <v>126.66593563</v>
+        <v>133.41217494</v>
       </c>
       <c r="G90" t="n">
-        <v>106.02241473</v>
+        <v>108.28247154</v>
       </c>
       <c r="H90" t="n">
-        <v>107.77625988</v>
+        <v>88.75599467000001</v>
       </c>
       <c r="I90" t="n">
-        <v>89.59738652</v>
+        <v>97.73589369</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>105.33331523</v>
+        <v>105.1756596</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
-        <v>106.43282313</v>
+        <v>106.07526088</v>
       </c>
       <c r="E91" t="n">
-        <v>116.52939914</v>
+        <v>135.70921671</v>
       </c>
       <c r="F91" t="n">
-        <v>127.01689914</v>
+        <v>134.84077669</v>
       </c>
       <c r="G91" t="n">
-        <v>107.71539229</v>
+        <v>111.34000853</v>
       </c>
       <c r="H91" t="n">
-        <v>106.05749607</v>
+        <v>83.80110790000001</v>
       </c>
       <c r="I91" t="n">
-        <v>102.27661084</v>
+        <v>104.78808419</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>104.12157768</v>
+        <v>105.43927891</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
-        <v>106.07192864</v>
+        <v>105.98913328</v>
       </c>
       <c r="E92" t="n">
-        <v>117.57120842</v>
+        <v>145.22193381</v>
       </c>
       <c r="F92" t="n">
-        <v>127.18005323</v>
+        <v>128.93130423</v>
       </c>
       <c r="G92" t="n">
-        <v>107.051529</v>
+        <v>115.43594271</v>
       </c>
       <c r="H92" t="n">
-        <v>94.63033906</v>
+        <v>87.75573996</v>
       </c>
       <c r="I92" t="n">
-        <v>103.10084554</v>
+        <v>118.67015921</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>104.06866058</v>
+        <v>106.18447373</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
-        <v>105.904667</v>
+        <v>106.39972009</v>
       </c>
       <c r="E93" t="n">
-        <v>126.49371631</v>
+        <v>149.04712614</v>
       </c>
       <c r="F93" t="n">
-        <v>133.41217494</v>
+        <v>123.37316417</v>
       </c>
       <c r="G93" t="n">
-        <v>108.28247154</v>
+        <v>118.18687919</v>
       </c>
       <c r="H93" t="n">
-        <v>88.75599467000001</v>
+        <v>96.67752779999999</v>
       </c>
       <c r="I93" t="n">
-        <v>97.73589369</v>
+        <v>122.4796086</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>105.1756596</v>
+        <v>107.51082405</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
-        <v>106.07526088</v>
+        <v>106.50813867</v>
       </c>
       <c r="E94" t="n">
-        <v>135.70921671</v>
+        <v>142.97062007</v>
       </c>
       <c r="F94" t="n">
-        <v>134.84077669</v>
+        <v>118.21489036</v>
       </c>
       <c r="G94" t="n">
-        <v>111.34000853</v>
+        <v>116.86442054</v>
       </c>
       <c r="H94" t="n">
-        <v>83.80110790000001</v>
+        <v>104.50061843</v>
       </c>
       <c r="I94" t="n">
-        <v>104.78808419</v>
+        <v>112.02707029</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>105.43927891</v>
+        <v>107</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="n">
-        <v>105.98913328</v>
+        <v>106.7</v>
       </c>
       <c r="E95" t="n">
-        <v>145.22193381</v>
+        <v>138.3</v>
       </c>
       <c r="F95" t="n">
-        <v>128.93130423</v>
+        <v>115</v>
       </c>
       <c r="G95" t="n">
-        <v>115.43594271</v>
+        <v>117.6</v>
       </c>
       <c r="H95" t="n">
-        <v>87.75573996</v>
+        <v>108.5</v>
       </c>
       <c r="I95" t="n">
-        <v>118.67015921</v>
+        <v>129.9</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>106.18447373</v>
+        <v>106.76678133</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
-        <v>106.39972009</v>
+        <v>106.62824772</v>
       </c>
       <c r="E96" t="n">
-        <v>149.04712614</v>
+        <v>138.75122205</v>
       </c>
       <c r="F96" t="n">
-        <v>123.37316417</v>
+        <v>111.00662916</v>
       </c>
       <c r="G96" t="n">
-        <v>118.18687919</v>
+        <v>118.20517443</v>
       </c>
       <c r="H96" t="n">
-        <v>96.67752779999999</v>
+        <v>112.86271531</v>
       </c>
       <c r="I96" t="n">
-        <v>122.4796086</v>
+        <v>128.6473471</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>107.51082405</v>
+        <v>106.08567953</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
-        <v>106.50813867</v>
+        <v>105.52129965</v>
       </c>
       <c r="E97" t="n">
-        <v>142.97062007</v>
+        <v>138.76524686</v>
       </c>
       <c r="F97" t="n">
-        <v>118.21489036</v>
+        <v>105.44087421</v>
       </c>
       <c r="G97" t="n">
-        <v>116.86442054</v>
+        <v>116.70255479</v>
       </c>
       <c r="H97" t="n">
-        <v>104.50061843</v>
+        <v>113.84318757</v>
       </c>
       <c r="I97" t="n">
-        <v>112.02707029</v>
+        <v>109.48521484</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-01</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>112.67193692</v>
+        <v>108.68450429</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
-        <v>106.90154355</v>
+        <v>105.72199388</v>
       </c>
       <c r="E98" t="n">
-        <v>106.69688091</v>
+        <v>141.19813648</v>
       </c>
       <c r="F98" t="n">
-        <v>104.03323167</v>
+        <v>106.04567767</v>
       </c>
       <c r="G98" t="n">
-        <v>108.50629881</v>
+        <v>118.17347496</v>
       </c>
       <c r="H98" t="n">
-        <v>105.46078267</v>
+        <v>110.27814469</v>
       </c>
       <c r="I98" t="n">
-        <v>100.17325952</v>
+        <v>113.6696214</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>111.22085619</v>
+        <v>113.75479851</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="n">
-        <v>105.76955622</v>
+        <v>106.01095451</v>
       </c>
       <c r="E99" t="n">
-        <v>102.03247801</v>
+        <v>145.31271563</v>
       </c>
       <c r="F99" t="n">
-        <v>102.94448961</v>
+        <v>107.40335281</v>
       </c>
       <c r="G99" t="n">
-        <v>105.92817715</v>
+        <v>123.25224813</v>
       </c>
       <c r="H99" t="n">
-        <v>104.24961711</v>
+        <v>108.70254245</v>
       </c>
       <c r="I99" t="n">
-        <v>97.9290215</v>
+        <v>145.9756553</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>110.44970694</v>
+        <v>111.03439231</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="n">
-        <v>104.32760931</v>
+        <v>106.751534</v>
       </c>
       <c r="E100" t="n">
-        <v>98.98716182</v>
+        <v>145.83393521</v>
       </c>
       <c r="F100" t="n">
-        <v>102.00694401</v>
+        <v>104.93768265</v>
       </c>
       <c r="G100" t="n">
-        <v>104.16510021</v>
+        <v>121.44800003</v>
       </c>
       <c r="H100" t="n">
-        <v>101.50214153</v>
+        <v>104.33952515</v>
       </c>
       <c r="I100" t="n">
-        <v>105.45313161</v>
+        <v>122.66858668</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>108.68450429</v>
+        <v>116.07888355</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
-        <v>105.72199388</v>
+        <v>107.36741202</v>
       </c>
       <c r="E101" t="n">
-        <v>141.19813648</v>
+        <v>147.94019591</v>
       </c>
       <c r="F101" t="n">
-        <v>106.04567767</v>
+        <v>105.07574832</v>
       </c>
       <c r="G101" t="n">
-        <v>118.17347496</v>
+        <v>122.10171699</v>
       </c>
       <c r="H101" t="n">
-        <v>110.27814469</v>
+        <v>112.08682828</v>
       </c>
       <c r="I101" t="n">
-        <v>113.6696214</v>
+        <v>113.62456007</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>113.75479851</v>
+        <v>118.31615294</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="n">
-        <v>106.01095451</v>
+        <v>108.64579152</v>
       </c>
       <c r="E102" t="n">
-        <v>145.31271563</v>
+        <v>137.786827</v>
       </c>
       <c r="F102" t="n">
-        <v>107.40335281</v>
+        <v>103.25383113</v>
       </c>
       <c r="G102" t="n">
-        <v>123.25224813</v>
+        <v>119.87324038</v>
       </c>
       <c r="H102" t="n">
-        <v>108.70254245</v>
+        <v>110.02732184</v>
       </c>
       <c r="I102" t="n">
-        <v>145.9756553</v>
+        <v>110.29674039</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>111.03439231</v>
+        <v>118.29841171</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="n">
-        <v>106.751534</v>
+        <v>108.70833949</v>
       </c>
       <c r="E103" t="n">
-        <v>145.83393521</v>
+        <v>127.26338257</v>
       </c>
       <c r="F103" t="n">
-        <v>104.93768265</v>
+        <v>102.90813403</v>
       </c>
       <c r="G103" t="n">
-        <v>121.44800003</v>
+        <v>117.29437303</v>
       </c>
       <c r="H103" t="n">
-        <v>104.33952515</v>
+        <v>114.21032617</v>
       </c>
       <c r="I103" t="n">
-        <v>122.66858668</v>
+        <v>108.28557171</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>116.07888355</v>
+        <v>118.28172842</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
-        <v>107.36741202</v>
+        <v>108.60813056</v>
       </c>
       <c r="E104" t="n">
-        <v>147.94019591</v>
+        <v>116.02585112</v>
       </c>
       <c r="F104" t="n">
-        <v>105.07574832</v>
+        <v>106.0479783</v>
       </c>
       <c r="G104" t="n">
-        <v>122.10171699</v>
+        <v>114.42282239</v>
       </c>
       <c r="H104" t="n">
-        <v>112.08682828</v>
+        <v>117.35336472</v>
       </c>
       <c r="I104" t="n">
-        <v>113.62456007</v>
+        <v>108.37938802</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>118.31615294</v>
+        <v>116.43220837</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
-        <v>108.64579152</v>
+        <v>107.96783735</v>
       </c>
       <c r="E105" t="n">
-        <v>137.786827</v>
+        <v>108.02278224</v>
       </c>
       <c r="F105" t="n">
-        <v>103.25383113</v>
+        <v>102.67879487</v>
       </c>
       <c r="G105" t="n">
-        <v>119.87324038</v>
+        <v>110.27557388</v>
       </c>
       <c r="H105" t="n">
-        <v>110.02732184</v>
+        <v>113.01103153</v>
       </c>
       <c r="I105" t="n">
-        <v>110.29674039</v>
+        <v>99.52897160000001</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>118.29841171</v>
+        <v>114.72485713</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="n">
-        <v>108.70833949</v>
+        <v>107.57043897</v>
       </c>
       <c r="E106" t="n">
-        <v>127.26338257</v>
+        <v>108.48040727</v>
       </c>
       <c r="F106" t="n">
-        <v>102.90813403</v>
+        <v>105.08736114</v>
       </c>
       <c r="G106" t="n">
-        <v>117.29437303</v>
+        <v>109.70153879</v>
       </c>
       <c r="H106" t="n">
-        <v>114.21032617</v>
+        <v>108.8514031</v>
       </c>
       <c r="I106" t="n">
-        <v>108.28557171</v>
+        <v>100.12794079</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>118.28172842</v>
+        <v>112.67193692</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
-        <v>108.60813056</v>
+        <v>106.90154355</v>
       </c>
       <c r="E107" t="n">
-        <v>116.02585112</v>
+        <v>106.69688091</v>
       </c>
       <c r="F107" t="n">
-        <v>106.0479783</v>
+        <v>104.03323167</v>
       </c>
       <c r="G107" t="n">
-        <v>114.42282239</v>
+        <v>108.50629881</v>
       </c>
       <c r="H107" t="n">
-        <v>117.35336472</v>
+        <v>105.46078267</v>
       </c>
       <c r="I107" t="n">
-        <v>108.37938802</v>
+        <v>100.17325952</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>116.43220837</v>
+        <v>111.22085619</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="n">
-        <v>107.96783735</v>
+        <v>105.76955622</v>
       </c>
       <c r="E108" t="n">
-        <v>108.02278224</v>
+        <v>102.03247801</v>
       </c>
       <c r="F108" t="n">
-        <v>102.67879487</v>
+        <v>102.94448961</v>
       </c>
       <c r="G108" t="n">
-        <v>110.27557388</v>
+        <v>105.92817715</v>
       </c>
       <c r="H108" t="n">
-        <v>113.01103153</v>
+        <v>104.24961711</v>
       </c>
       <c r="I108" t="n">
-        <v>99.52897160000001</v>
+        <v>97.9290215</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>114.72485713</v>
+        <v>110.44970694</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
-        <v>107.57043897</v>
+        <v>104.32760931</v>
       </c>
       <c r="E109" t="n">
-        <v>108.48040727</v>
+        <v>98.98716182</v>
       </c>
       <c r="F109" t="n">
-        <v>105.08736114</v>
+        <v>102.00694401</v>
       </c>
       <c r="G109" t="n">
-        <v>109.70153879</v>
+        <v>104.16510021</v>
       </c>
       <c r="H109" t="n">
-        <v>108.8514031</v>
+        <v>101.50214153</v>
       </c>
       <c r="I109" t="n">
-        <v>100.12794079</v>
+        <v>105.45313161</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>101.40553581</v>
+        <v>111.57139972</v>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="n">
-        <v>106.1833702</v>
+        <v>103.89973077</v>
       </c>
       <c r="E110" t="n">
-        <v>96.10638579</v>
+        <v>97.19779262</v>
       </c>
       <c r="F110" t="n">
-        <v>101.18843059</v>
+        <v>101.41037947</v>
       </c>
       <c r="G110" t="n">
-        <v>101.58218104</v>
+        <v>104.21102019</v>
       </c>
       <c r="H110" t="n">
-        <v>112.27622096</v>
+        <v>99.57683858</v>
       </c>
       <c r="I110" t="n">
-        <v>114.82261286</v>
+        <v>119.64083746</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>103.5572487</v>
+        <v>103.31093313</v>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="n">
-        <v>107.02324767</v>
+        <v>104.38751498</v>
       </c>
       <c r="E111" t="n">
-        <v>98.33843296000001</v>
+        <v>91.18667979</v>
       </c>
       <c r="F111" t="n">
-        <v>102.91681858</v>
+        <v>97.55429391</v>
       </c>
       <c r="G111" t="n">
-        <v>103.159762</v>
+        <v>98.08557596</v>
       </c>
       <c r="H111" t="n">
-        <v>106.11630823</v>
+        <v>94.88934156000001</v>
       </c>
       <c r="I111" t="n">
-        <v>123.87977831</v>
+        <v>90.6646478</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>105.73382378</v>
+        <v>106.41524044</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="n">
-        <v>108.61166909</v>
+        <v>105.5284323</v>
       </c>
       <c r="E112" t="n">
-        <v>98.2938877</v>
+        <v>89.66317985000001</v>
       </c>
       <c r="F112" t="n">
-        <v>105.45945935</v>
+        <v>102.10946435</v>
       </c>
       <c r="G112" t="n">
-        <v>105.31175789</v>
+        <v>99.33330237</v>
       </c>
       <c r="H112" t="n">
-        <v>106.75257589</v>
+        <v>98.80490819000001</v>
       </c>
       <c r="I112" t="n">
-        <v>136.23851173</v>
+        <v>105.93949787</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>111.57139972</v>
+        <v>103.43928728</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="n">
-        <v>103.89973077</v>
+        <v>105.50895265</v>
       </c>
       <c r="E113" t="n">
-        <v>97.19779262</v>
+        <v>86.45245860999999</v>
       </c>
       <c r="F113" t="n">
-        <v>101.41037947</v>
+        <v>105.08131657</v>
       </c>
       <c r="G113" t="n">
-        <v>104.21102019</v>
+        <v>98.66631331000001</v>
       </c>
       <c r="H113" t="n">
-        <v>99.57683858</v>
+        <v>100.42717303</v>
       </c>
       <c r="I113" t="n">
-        <v>119.64083746</v>
+        <v>110.91975206</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>103.31093313</v>
+        <v>100.8634361</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="n">
-        <v>104.38751498</v>
+        <v>104.99371226</v>
       </c>
       <c r="E114" t="n">
-        <v>91.18667979</v>
+        <v>84.53431172000001</v>
       </c>
       <c r="F114" t="n">
-        <v>97.55429391</v>
+        <v>103.20253102</v>
       </c>
       <c r="G114" t="n">
-        <v>98.08557596</v>
+        <v>99.35212505</v>
       </c>
       <c r="H114" t="n">
-        <v>94.88934156000001</v>
+        <v>113.59546728</v>
       </c>
       <c r="I114" t="n">
-        <v>90.6646478</v>
+        <v>122.23903432</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>106.41524044</v>
+        <v>99.22654873</v>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="n">
-        <v>105.5284323</v>
+        <v>105.05314019</v>
       </c>
       <c r="E115" t="n">
-        <v>89.66317985000001</v>
+        <v>84.62148623</v>
       </c>
       <c r="F115" t="n">
-        <v>102.10946435</v>
+        <v>100.37644479</v>
       </c>
       <c r="G115" t="n">
-        <v>99.33330237</v>
+        <v>98.90552096</v>
       </c>
       <c r="H115" t="n">
-        <v>98.80490819000001</v>
+        <v>119.85422011</v>
       </c>
       <c r="I115" t="n">
-        <v>105.93949787</v>
+        <v>117.55999595</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>103.43928728</v>
+        <v>98.15719522000001</v>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="n">
-        <v>105.50895265</v>
+        <v>105.0855067</v>
       </c>
       <c r="E116" t="n">
-        <v>86.45245860999999</v>
+        <v>86.77932629</v>
       </c>
       <c r="F116" t="n">
-        <v>105.08131657</v>
+        <v>98.84873838</v>
       </c>
       <c r="G116" t="n">
-        <v>98.66631331000001</v>
+        <v>98.82049222000001</v>
       </c>
       <c r="H116" t="n">
-        <v>100.42717303</v>
+        <v>124.13923533</v>
       </c>
       <c r="I116" t="n">
-        <v>110.91975206</v>
+        <v>110.14208395</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>100.8634361</v>
+        <v>98.58485569</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>104.99371226</v>
+        <v>105.17176429</v>
       </c>
       <c r="E117" t="n">
-        <v>84.53431172000001</v>
+        <v>90.50131197</v>
       </c>
       <c r="F117" t="n">
-        <v>103.20253102</v>
+        <v>100.85587844</v>
       </c>
       <c r="G117" t="n">
-        <v>99.35212505</v>
+        <v>100.53339724</v>
       </c>
       <c r="H117" t="n">
-        <v>113.59546728</v>
+        <v>122.10979511</v>
       </c>
       <c r="I117" t="n">
-        <v>122.23903432</v>
+        <v>121.79379076</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>99.22654873</v>
+        <v>98.84154762</v>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="n">
-        <v>105.05314019</v>
+        <v>105.53249575</v>
       </c>
       <c r="E118" t="n">
-        <v>84.62148623</v>
+        <v>93.26851888</v>
       </c>
       <c r="F118" t="n">
-        <v>100.37644479</v>
+        <v>100.21936649</v>
       </c>
       <c r="G118" t="n">
-        <v>98.90552096</v>
+        <v>101.47479982</v>
       </c>
       <c r="H118" t="n">
-        <v>119.85422011</v>
+        <v>117.23783919</v>
       </c>
       <c r="I118" t="n">
-        <v>117.55999595</v>
+        <v>125.77556482</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>98.15719522000001</v>
+        <v>101.40553581</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="n">
-        <v>105.0855067</v>
+        <v>106.1833702</v>
       </c>
       <c r="E119" t="n">
-        <v>86.77932629</v>
+        <v>96.10638579</v>
       </c>
       <c r="F119" t="n">
-        <v>98.84873838</v>
+        <v>101.18843059</v>
       </c>
       <c r="G119" t="n">
-        <v>98.82049222000001</v>
+        <v>101.58218104</v>
       </c>
       <c r="H119" t="n">
-        <v>124.13923533</v>
+        <v>112.27622096</v>
       </c>
       <c r="I119" t="n">
-        <v>110.14208395</v>
+        <v>114.82261286</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>98.58485569</v>
+        <v>103.5572487</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="n">
-        <v>105.17176429</v>
+        <v>107.02324767</v>
       </c>
       <c r="E120" t="n">
-        <v>90.50131197</v>
+        <v>98.33843296000001</v>
       </c>
       <c r="F120" t="n">
-        <v>100.85587844</v>
+        <v>102.91681858</v>
       </c>
       <c r="G120" t="n">
-        <v>100.53339724</v>
+        <v>103.159762</v>
       </c>
       <c r="H120" t="n">
-        <v>122.10979511</v>
+        <v>106.11630823</v>
       </c>
       <c r="I120" t="n">
-        <v>121.79379076</v>
+        <v>123.87977831</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>98.84154762</v>
+        <v>105.73382378</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="n">
-        <v>105.53249575</v>
+        <v>108.61166909</v>
       </c>
       <c r="E121" t="n">
-        <v>93.26851888</v>
+        <v>98.2938877</v>
       </c>
       <c r="F121" t="n">
-        <v>100.21936649</v>
+        <v>105.45945935</v>
       </c>
       <c r="G121" t="n">
-        <v>101.47479982</v>
+        <v>105.31175789</v>
       </c>
       <c r="H121" t="n">
-        <v>117.23783919</v>
+        <v>106.75257589</v>
       </c>
       <c r="I121" t="n">
-        <v>125.77556482</v>
+        <v>136.23851173</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>111.14967012</v>
+        <v>103.85732334</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="n">
-        <v>112.34310008</v>
+        <v>109.76447393</v>
       </c>
       <c r="E122" t="n">
-        <v>106.79926472</v>
+        <v>96.4923778</v>
       </c>
       <c r="F122" t="n">
-        <v>110.48914844</v>
+        <v>106.22097367</v>
       </c>
       <c r="G122" t="n">
-        <v>110.06222485</v>
+        <v>103.71958616</v>
       </c>
       <c r="H122" t="n">
-        <v>117.7001291</v>
+        <v>109.78111754</v>
       </c>
       <c r="I122" t="n">
-        <v>130.9524301</v>
+        <v>117.14194575</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>111.85339601</v>
+        <v>108.81000369</v>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="n">
-        <v>114.73573542</v>
+        <v>109.58475173</v>
       </c>
       <c r="E123" t="n">
-        <v>109.90581031</v>
+        <v>98.41853318</v>
       </c>
       <c r="F123" t="n">
-        <v>117.645025</v>
+        <v>108.6690199</v>
       </c>
       <c r="G123" t="n">
-        <v>111.69507069</v>
+        <v>106.23653547</v>
       </c>
       <c r="H123" t="n">
-        <v>128.06465535</v>
+        <v>119.00508239</v>
       </c>
       <c r="I123" t="n">
-        <v>121.25068811</v>
+        <v>125.49474561</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>110.88890341</v>
+        <v>106.32414737</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="n">
-        <v>115.56912528</v>
+        <v>109.23935989</v>
       </c>
       <c r="E124" t="n">
-        <v>110.22849021</v>
+        <v>97.80360736</v>
       </c>
       <c r="F124" t="n">
-        <v>118.97398587</v>
+        <v>105.7351581</v>
       </c>
       <c r="G124" t="n">
-        <v>109.55246162</v>
+        <v>105.24090517</v>
       </c>
       <c r="H124" t="n">
-        <v>134.43716587</v>
+        <v>118.79231385</v>
       </c>
       <c r="I124" t="n">
-        <v>94.28419125000001</v>
+        <v>118.45986497</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>103.85732334</v>
+        <v>105.52188645</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="n">
-        <v>109.76447393</v>
+        <v>110.6791024</v>
       </c>
       <c r="E125" t="n">
-        <v>96.4923778</v>
+        <v>98.20871789</v>
       </c>
       <c r="F125" t="n">
-        <v>106.22097367</v>
+        <v>101.76564494</v>
       </c>
       <c r="G125" t="n">
-        <v>103.71958616</v>
+        <v>105.9473445</v>
       </c>
       <c r="H125" t="n">
-        <v>109.78111754</v>
+        <v>116.39210686</v>
       </c>
       <c r="I125" t="n">
-        <v>117.14194575</v>
+        <v>124.9131179</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>108.81000369</v>
+        <v>105.55517217</v>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="n">
-        <v>109.58475173</v>
+        <v>111.53527215</v>
       </c>
       <c r="E126" t="n">
-        <v>98.41853318</v>
+        <v>100.82993798</v>
       </c>
       <c r="F126" t="n">
-        <v>108.6690199</v>
+        <v>100.19330739</v>
       </c>
       <c r="G126" t="n">
-        <v>106.23653547</v>
+        <v>106.06743346</v>
       </c>
       <c r="H126" t="n">
-        <v>119.00508239</v>
+        <v>111.80052451</v>
       </c>
       <c r="I126" t="n">
-        <v>125.49474561</v>
+        <v>121.34743648</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>106.32414737</v>
+        <v>106.46530548</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="n">
-        <v>109.23935989</v>
+        <v>111.73113424</v>
       </c>
       <c r="E127" t="n">
-        <v>97.80360736</v>
+        <v>101.80600078</v>
       </c>
       <c r="F127" t="n">
-        <v>105.7351581</v>
+        <v>102.21908417</v>
       </c>
       <c r="G127" t="n">
-        <v>105.24090517</v>
+        <v>105.70363879</v>
       </c>
       <c r="H127" t="n">
-        <v>118.79231385</v>
+        <v>109.19347066</v>
       </c>
       <c r="I127" t="n">
-        <v>118.45986497</v>
+        <v>114.55011939</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>105.52188645</v>
+        <v>107.60447125</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="n">
-        <v>110.6791024</v>
+        <v>111.75171955</v>
       </c>
       <c r="E128" t="n">
-        <v>98.20871789</v>
+        <v>104.0934129</v>
       </c>
       <c r="F128" t="n">
-        <v>101.76564494</v>
+        <v>107.51052515</v>
       </c>
       <c r="G128" t="n">
-        <v>105.9473445</v>
+        <v>106.8273508</v>
       </c>
       <c r="H128" t="n">
-        <v>116.39210686</v>
+        <v>104.49947439</v>
       </c>
       <c r="I128" t="n">
-        <v>124.9131179</v>
+        <v>122.28504305</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>105.55517217</v>
+        <v>108.52263689</v>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
-        <v>111.53527215</v>
+        <v>111.95457515</v>
       </c>
       <c r="E129" t="n">
-        <v>100.82993798</v>
+        <v>105.42576561</v>
       </c>
       <c r="F129" t="n">
-        <v>100.19330739</v>
+        <v>109.63597513</v>
       </c>
       <c r="G129" t="n">
-        <v>106.06743346</v>
+        <v>107.49903921</v>
       </c>
       <c r="H129" t="n">
-        <v>111.80052451</v>
+        <v>108.10052989</v>
       </c>
       <c r="I129" t="n">
-        <v>121.34743648</v>
+        <v>119.24392123</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>106.46530548</v>
+        <v>110.89956466</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="n">
-        <v>111.73113424</v>
+        <v>112.0694635</v>
       </c>
       <c r="E130" t="n">
-        <v>101.80600078</v>
+        <v>105.42496985</v>
       </c>
       <c r="F130" t="n">
-        <v>102.21908417</v>
+        <v>109.9020249</v>
       </c>
       <c r="G130" t="n">
-        <v>105.70363879</v>
+        <v>108.04903454</v>
       </c>
       <c r="H130" t="n">
-        <v>109.19347066</v>
+        <v>113.17772039</v>
       </c>
       <c r="I130" t="n">
-        <v>114.55011939</v>
+        <v>118.00533151</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>107.60447125</v>
+        <v>111.14967012</v>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="n">
-        <v>111.75171955</v>
+        <v>112.34310008</v>
       </c>
       <c r="E131" t="n">
-        <v>104.0934129</v>
+        <v>106.79926472</v>
       </c>
       <c r="F131" t="n">
-        <v>107.51052515</v>
+        <v>110.48914844</v>
       </c>
       <c r="G131" t="n">
-        <v>106.8273508</v>
+        <v>110.06222485</v>
       </c>
       <c r="H131" t="n">
-        <v>104.49947439</v>
+        <v>117.7001291</v>
       </c>
       <c r="I131" t="n">
-        <v>122.28504305</v>
+        <v>130.9524301</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>108.52263689</v>
+        <v>111.85339601</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="n">
-        <v>111.95457515</v>
+        <v>114.73573542</v>
       </c>
       <c r="E132" t="n">
-        <v>105.42576561</v>
+        <v>109.90581031</v>
       </c>
       <c r="F132" t="n">
-        <v>109.63597513</v>
+        <v>117.645025</v>
       </c>
       <c r="G132" t="n">
-        <v>107.49903921</v>
+        <v>111.69507069</v>
       </c>
       <c r="H132" t="n">
-        <v>108.10052989</v>
+        <v>128.06465535</v>
       </c>
       <c r="I132" t="n">
-        <v>119.24392123</v>
+        <v>121.25068811</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>110.89956466</v>
+        <v>110.88890341</v>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="n">
-        <v>112.0694635</v>
+        <v>115.56912528</v>
       </c>
       <c r="E133" t="n">
-        <v>105.42496985</v>
+        <v>110.22849021</v>
       </c>
       <c r="F133" t="n">
-        <v>109.9020249</v>
+        <v>118.97398587</v>
       </c>
       <c r="G133" t="n">
-        <v>108.04903454</v>
+        <v>109.55246162</v>
       </c>
       <c r="H133" t="n">
-        <v>113.17772039</v>
+        <v>134.43716587</v>
       </c>
       <c r="I133" t="n">
-        <v>118.00533151</v>
+        <v>94.28419125000001</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>112.38107211</v>
+        <v>111.06686357</v>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="n">
-        <v>111.59073867</v>
+        <v>115.07571082</v>
       </c>
       <c r="E134" t="n">
-        <v>126.10909154</v>
+        <v>110.87746033</v>
       </c>
       <c r="F134" t="n">
-        <v>112.6461638</v>
+        <v>118.99682575</v>
       </c>
       <c r="G134" t="n">
-        <v>111.92738036</v>
+        <v>110.33719701</v>
       </c>
       <c r="H134" t="n">
-        <v>111.09869287</v>
+        <v>134.75759754</v>
       </c>
       <c r="I134" t="n">
-        <v>93.17985717000001</v>
+        <v>102.00915131</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>110.75989724</v>
+        <v>109.09257522</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="n">
-        <v>108.88707694</v>
+        <v>114.82959075</v>
       </c>
       <c r="E135" t="n">
-        <v>119.586634</v>
+        <v>113.27247934</v>
       </c>
       <c r="F135" t="n">
-        <v>104.37618114</v>
+        <v>118.40472615</v>
       </c>
       <c r="G135" t="n">
-        <v>108.80226107</v>
+        <v>110.99520496</v>
       </c>
       <c r="H135" t="n">
-        <v>110.82847158</v>
+        <v>131.05716943</v>
       </c>
       <c r="I135" t="n">
-        <v>89.01258812</v>
+        <v>106.04684418</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>109.72772277</v>
+        <v>110.2</v>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="n">
-        <v>106.86142708</v>
+        <v>115</v>
       </c>
       <c r="E136" t="n">
-        <v>116.56183675</v>
+        <v>117.3</v>
       </c>
       <c r="F136" t="n">
-        <v>101.23580671</v>
+        <v>113.5</v>
       </c>
       <c r="G136" t="n">
-        <v>109.05546372</v>
+        <v>111.7</v>
       </c>
       <c r="H136" t="n">
-        <v>104.38776689</v>
+        <v>129.9</v>
       </c>
       <c r="I136" t="n">
-        <v>111.51657468</v>
+        <v>104.3</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>111.06686357</v>
+        <v>111.6</v>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
-        <v>115.07571082</v>
+        <v>113.9</v>
       </c>
       <c r="E137" t="n">
-        <v>110.87746033</v>
+        <v>121.4</v>
       </c>
       <c r="F137" t="n">
-        <v>118.99682575</v>
+        <v>113.8</v>
       </c>
       <c r="G137" t="n">
-        <v>110.33719701</v>
+        <v>111.5</v>
       </c>
       <c r="H137" t="n">
-        <v>134.75759754</v>
+        <v>130.3</v>
       </c>
       <c r="I137" t="n">
-        <v>102.00915131</v>
+        <v>92.59999999999999</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>109.09257522</v>
+        <v>112.5</v>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="n">
-        <v>114.82959075</v>
+        <v>112.9</v>
       </c>
       <c r="E138" t="n">
-        <v>113.27247934</v>
+        <v>124.3</v>
       </c>
       <c r="F138" t="n">
-        <v>118.40472615</v>
+        <v>118.9</v>
       </c>
       <c r="G138" t="n">
-        <v>110.99520496</v>
+        <v>111.7</v>
       </c>
       <c r="H138" t="n">
-        <v>131.05716943</v>
+        <v>120.7</v>
       </c>
       <c r="I138" t="n">
-        <v>106.04684418</v>
+        <v>92.90000000000001</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>110.2</v>
+        <v>113.9</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="n">
-        <v>115</v>
+        <v>112.4</v>
       </c>
       <c r="E139" t="n">
-        <v>117.3</v>
+        <v>132.3</v>
       </c>
       <c r="F139" t="n">
-        <v>113.5</v>
+        <v>122.1</v>
       </c>
       <c r="G139" t="n">
-        <v>111.7</v>
+        <v>114.4</v>
       </c>
       <c r="H139" t="n">
-        <v>129.9</v>
+        <v>109.8</v>
       </c>
       <c r="I139" t="n">
-        <v>104.3</v>
+        <v>107.3</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>111.6</v>
+        <v>115.00535803</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
-        <v>113.9</v>
+        <v>112.37126694</v>
       </c>
       <c r="E140" t="n">
-        <v>121.4</v>
+        <v>133.58331333</v>
       </c>
       <c r="F140" t="n">
-        <v>113.8</v>
+        <v>119.73895665</v>
       </c>
       <c r="G140" t="n">
-        <v>111.5</v>
+        <v>114.76253032</v>
       </c>
       <c r="H140" t="n">
-        <v>130.3</v>
+        <v>104.92064419</v>
       </c>
       <c r="I140" t="n">
-        <v>92.59999999999999</v>
+        <v>107.60116228</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>112.5</v>
+        <v>114.70527032</v>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="n">
-        <v>112.9</v>
+        <v>112.23241138</v>
       </c>
       <c r="E141" t="n">
-        <v>124.3</v>
+        <v>129.27320863</v>
       </c>
       <c r="F141" t="n">
-        <v>118.9</v>
+        <v>116.31264158</v>
       </c>
       <c r="G141" t="n">
-        <v>111.7</v>
+        <v>113.38761041</v>
       </c>
       <c r="H141" t="n">
-        <v>120.7</v>
+        <v>104.0410352</v>
       </c>
       <c r="I141" t="n">
-        <v>92.90000000000001</v>
+        <v>100.05739811</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>113.9</v>
+        <v>114.09570139</v>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="n">
-        <v>112.4</v>
+        <v>111.9310753</v>
       </c>
       <c r="E142" t="n">
-        <v>132.3</v>
+        <v>128.38605964</v>
       </c>
       <c r="F142" t="n">
-        <v>122.1</v>
+        <v>114.21800705</v>
       </c>
       <c r="G142" t="n">
-        <v>114.4</v>
+        <v>113.41902915</v>
       </c>
       <c r="H142" t="n">
-        <v>109.8</v>
+        <v>106.15593762</v>
       </c>
       <c r="I142" t="n">
-        <v>107.3</v>
+        <v>102.11423933</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>115.00535803</v>
+        <v>112.38107211</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="n">
-        <v>112.37126694</v>
+        <v>111.59073867</v>
       </c>
       <c r="E143" t="n">
-        <v>133.58331333</v>
+        <v>126.10909154</v>
       </c>
       <c r="F143" t="n">
-        <v>119.73895665</v>
+        <v>112.6461638</v>
       </c>
       <c r="G143" t="n">
-        <v>114.76253032</v>
+        <v>111.92738036</v>
       </c>
       <c r="H143" t="n">
-        <v>104.92064419</v>
+        <v>111.09869287</v>
       </c>
       <c r="I143" t="n">
-        <v>107.60116228</v>
+        <v>93.17985717000001</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>114.70527032</v>
+        <v>110.75989724</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="n">
-        <v>112.23241138</v>
+        <v>108.88707694</v>
       </c>
       <c r="E144" t="n">
-        <v>129.27320863</v>
+        <v>119.586634</v>
       </c>
       <c r="F144" t="n">
-        <v>116.31264158</v>
+        <v>104.37618114</v>
       </c>
       <c r="G144" t="n">
-        <v>113.38761041</v>
+        <v>108.80226107</v>
       </c>
       <c r="H144" t="n">
-        <v>104.0410352</v>
+        <v>110.82847158</v>
       </c>
       <c r="I144" t="n">
-        <v>100.05739811</v>
+        <v>89.01258812</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>114.09570139</v>
+        <v>109.72772277</v>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
-        <v>111.9310753</v>
+        <v>106.86142708</v>
       </c>
       <c r="E145" t="n">
-        <v>128.38605964</v>
+        <v>116.56183675</v>
       </c>
       <c r="F145" t="n">
-        <v>114.21800705</v>
+        <v>101.23580671</v>
       </c>
       <c r="G145" t="n">
-        <v>113.41902915</v>
+        <v>109.05546372</v>
       </c>
       <c r="H145" t="n">
-        <v>106.15593762</v>
+        <v>104.38776689</v>
       </c>
       <c r="I145" t="n">
-        <v>102.11423933</v>
+        <v>111.51657468</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>104.65625225</v>
+        <v>113.24953767</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
-        <v>103.78764781</v>
+        <v>106.06869105</v>
       </c>
       <c r="E146" t="n">
-        <v>95.30588851</v>
+        <v>118.7410636</v>
       </c>
       <c r="F146" t="n">
-        <v>99.95349864000001</v>
+        <v>98.01638502</v>
       </c>
       <c r="G146" t="n">
-        <v>101.78397049</v>
+        <v>110.50777282</v>
       </c>
       <c r="H146" t="n">
-        <v>103.85903791</v>
+        <v>102.30910475</v>
       </c>
       <c r="I146" t="n">
-        <v>101.10841384</v>
+        <v>123.02626322</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>104.90547526</v>
+        <v>107.50781748</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="n">
-        <v>103.82711755</v>
+        <v>105.354086</v>
       </c>
       <c r="E147" t="n">
-        <v>98.24370061</v>
+        <v>112.94654244</v>
       </c>
       <c r="F147" t="n">
-        <v>103.61780227</v>
+        <v>89.35833866</v>
       </c>
       <c r="G147" t="n">
-        <v>102.95698185</v>
+        <v>106.19858927</v>
       </c>
       <c r="H147" t="n">
-        <v>96.16401442</v>
+        <v>93.89223859000001</v>
       </c>
       <c r="I147" t="n">
-        <v>111.28553082</v>
+        <v>106.45157648</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>106.11964344</v>
+        <v>111.41546927</v>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
-        <v>104.08628322</v>
+        <v>104.2601044</v>
       </c>
       <c r="E148" t="n">
-        <v>101.41273976</v>
+        <v>111.34447318</v>
       </c>
       <c r="F148" t="n">
-        <v>108.6814769</v>
+        <v>94.21713165</v>
       </c>
       <c r="G148" t="n">
-        <v>104.24792955</v>
+        <v>107.49538462</v>
       </c>
       <c r="H148" t="n">
-        <v>94.36381442</v>
+        <v>93.77447956</v>
       </c>
       <c r="I148" t="n">
-        <v>114.79822969</v>
+        <v>120.46734234</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>113.24953767</v>
+        <v>111.49803431</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="n">
-        <v>106.06869105</v>
+        <v>103.74478716</v>
       </c>
       <c r="E149" t="n">
-        <v>118.7410636</v>
+        <v>108.24523256</v>
       </c>
       <c r="F149" t="n">
-        <v>98.01638502</v>
+        <v>94.11513472</v>
       </c>
       <c r="G149" t="n">
-        <v>110.50777282</v>
+        <v>106.95201768</v>
       </c>
       <c r="H149" t="n">
-        <v>102.30910475</v>
+        <v>90.29512201999999</v>
       </c>
       <c r="I149" t="n">
-        <v>123.02626322</v>
+        <v>127.83603317</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>107.50781748</v>
+        <v>111.33711987</v>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="n">
-        <v>105.354086</v>
+        <v>103.39866594</v>
       </c>
       <c r="E150" t="n">
-        <v>112.94654244</v>
+        <v>105.08198823</v>
       </c>
       <c r="F150" t="n">
-        <v>89.35833866</v>
+        <v>90.22112085000001</v>
       </c>
       <c r="G150" t="n">
-        <v>106.19858927</v>
+        <v>106.40211754</v>
       </c>
       <c r="H150" t="n">
-        <v>93.89223859000001</v>
+        <v>92.88450037</v>
       </c>
       <c r="I150" t="n">
-        <v>106.45157648</v>
+        <v>131.19871785</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>111.41546927</v>
+        <v>108.58110711</v>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
-        <v>104.2601044</v>
+        <v>103.21050946</v>
       </c>
       <c r="E151" t="n">
-        <v>111.34447318</v>
+        <v>98.28794932</v>
       </c>
       <c r="F151" t="n">
-        <v>94.21713165</v>
+        <v>96.44370352999999</v>
       </c>
       <c r="G151" t="n">
-        <v>107.49538462</v>
+        <v>103.76577816</v>
       </c>
       <c r="H151" t="n">
-        <v>93.77447956</v>
+        <v>100.57863207</v>
       </c>
       <c r="I151" t="n">
-        <v>120.46734234</v>
+        <v>112.12730944</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>111.49803431</v>
+        <v>106.66166478</v>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
-        <v>103.74478716</v>
+        <v>103.0011825</v>
       </c>
       <c r="E152" t="n">
-        <v>108.24523256</v>
+        <v>93.85009595</v>
       </c>
       <c r="F152" t="n">
-        <v>94.11513472</v>
+        <v>93.47197688999999</v>
       </c>
       <c r="G152" t="n">
-        <v>106.95201768</v>
+        <v>102.43381493</v>
       </c>
       <c r="H152" t="n">
-        <v>90.29512201999999</v>
+        <v>108.70618118</v>
       </c>
       <c r="I152" t="n">
-        <v>127.83603317</v>
+        <v>108.02071001</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>111.33711987</v>
+        <v>105.60884851</v>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="n">
-        <v>103.39866594</v>
+        <v>103.15989266</v>
       </c>
       <c r="E153" t="n">
-        <v>105.08198823</v>
+        <v>93.44114003</v>
       </c>
       <c r="F153" t="n">
-        <v>90.22112085000001</v>
+        <v>96.82060952</v>
       </c>
       <c r="G153" t="n">
-        <v>106.40211754</v>
+        <v>103.37836143</v>
       </c>
       <c r="H153" t="n">
-        <v>92.88450037</v>
+        <v>109.71855044</v>
       </c>
       <c r="I153" t="n">
-        <v>131.19871785</v>
+        <v>123.75827521</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>108.58110711</v>
+        <v>104.4721875</v>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="n">
-        <v>103.21050946</v>
+        <v>103.72241338</v>
       </c>
       <c r="E154" t="n">
-        <v>98.28794932</v>
+        <v>94.00793156</v>
       </c>
       <c r="F154" t="n">
-        <v>96.44370352999999</v>
+        <v>100.09129287</v>
       </c>
       <c r="G154" t="n">
-        <v>103.76577816</v>
+        <v>102.45537584</v>
       </c>
       <c r="H154" t="n">
-        <v>100.57863207</v>
+        <v>107.21446319</v>
       </c>
       <c r="I154" t="n">
-        <v>112.12730944</v>
+        <v>111.09418152</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>106.66166478</v>
+        <v>104.65625225</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
-        <v>103.0011825</v>
+        <v>103.78764781</v>
       </c>
       <c r="E155" t="n">
-        <v>93.85009595</v>
+        <v>95.30588851</v>
       </c>
       <c r="F155" t="n">
-        <v>93.47197688999999</v>
+        <v>99.95349864000001</v>
       </c>
       <c r="G155" t="n">
-        <v>102.43381493</v>
+        <v>101.78397049</v>
       </c>
       <c r="H155" t="n">
-        <v>108.70618118</v>
+        <v>103.85903791</v>
       </c>
       <c r="I155" t="n">
-        <v>108.02071001</v>
+        <v>101.10841384</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>105.60884851</v>
+        <v>104.90547526</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="n">
-        <v>103.15989266</v>
+        <v>103.82711755</v>
       </c>
       <c r="E156" t="n">
-        <v>93.44114003</v>
+        <v>98.24370061</v>
       </c>
       <c r="F156" t="n">
-        <v>96.82060952</v>
+        <v>103.61780227</v>
       </c>
       <c r="G156" t="n">
-        <v>103.37836143</v>
+        <v>102.95698185</v>
       </c>
       <c r="H156" t="n">
-        <v>109.71855044</v>
+        <v>96.16401442</v>
       </c>
       <c r="I156" t="n">
-        <v>123.75827521</v>
+        <v>111.28553082</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>104.4721875</v>
+        <v>106.11964344</v>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="n">
-        <v>103.72241338</v>
+        <v>104.08628322</v>
       </c>
       <c r="E157" t="n">
-        <v>94.00793156</v>
+        <v>101.41273976</v>
       </c>
       <c r="F157" t="n">
-        <v>100.09129287</v>
+        <v>108.6814769</v>
       </c>
       <c r="G157" t="n">
-        <v>102.45537584</v>
+        <v>104.24792955</v>
       </c>
       <c r="H157" t="n">
-        <v>107.21446319</v>
+        <v>94.36381442</v>
       </c>
       <c r="I157" t="n">
-        <v>111.09418152</v>
+        <v>114.79822969</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>106.36156283</v>
+        <v>102.51507249</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="n">
-        <v>103.81265786</v>
+        <v>104.66252842</v>
       </c>
       <c r="E158" t="n">
-        <v>105.83000695</v>
+        <v>101.4434091</v>
       </c>
       <c r="F158" t="n">
-        <v>99.26149061</v>
+        <v>111.00975662</v>
       </c>
       <c r="G158" t="n">
-        <v>106.54862744</v>
+        <v>102.88391152</v>
       </c>
       <c r="H158" t="n">
-        <v>108.82553125</v>
+        <v>93.25443298</v>
       </c>
       <c r="I158" t="n">
-        <v>131.54015193</v>
+        <v>102.56385924</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>106.48155566</v>
+        <v>107.74085874</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="n">
-        <v>103.9640332</v>
+        <v>105.08671561</v>
       </c>
       <c r="E159" t="n">
-        <v>105.50293188</v>
+        <v>105.27498095</v>
       </c>
       <c r="F159" t="n">
-        <v>98.3410662</v>
+        <v>119.66997672</v>
       </c>
       <c r="G159" t="n">
-        <v>105.94138655</v>
+        <v>105.98717266</v>
       </c>
       <c r="H159" t="n">
-        <v>110.63322472</v>
+        <v>103.72797247</v>
       </c>
       <c r="I159" t="n">
-        <v>122.33829113</v>
+        <v>110.01923808</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>105.49930282</v>
+        <v>101.55226435</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="n">
-        <v>103.83369392</v>
+        <v>105.18138659</v>
       </c>
       <c r="E160" t="n">
-        <v>103.56037749</v>
+        <v>102.90765965</v>
       </c>
       <c r="F160" t="n">
-        <v>95.93698304</v>
+        <v>113.89639223</v>
       </c>
       <c r="G160" t="n">
-        <v>104.05320343</v>
+        <v>102.67752386</v>
       </c>
       <c r="H160" t="n">
-        <v>115.57830098</v>
+        <v>105.04920608</v>
       </c>
       <c r="I160" t="n">
-        <v>102.55391703</v>
+        <v>89.7162465</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2013年1月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>102.51507249</v>
+        <v>101.97016644</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="n">
-        <v>104.66252842</v>
+        <v>105.18377978</v>
       </c>
       <c r="E161" t="n">
-        <v>101.4434091</v>
+        <v>101.49920011</v>
       </c>
       <c r="F161" t="n">
-        <v>111.00975662</v>
+        <v>112.25682972</v>
       </c>
       <c r="G161" t="n">
-        <v>102.88391152</v>
+        <v>104.04742827</v>
       </c>
       <c r="H161" t="n">
-        <v>93.25443298</v>
+        <v>105.29565572</v>
       </c>
       <c r="I161" t="n">
-        <v>102.56385924</v>
+        <v>105.91982938</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>107.74085874</v>
+        <v>102.22915362</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="n">
-        <v>105.08671561</v>
+        <v>105.13717479</v>
       </c>
       <c r="E162" t="n">
-        <v>105.27498095</v>
+        <v>101.6159256</v>
       </c>
       <c r="F162" t="n">
-        <v>119.66997672</v>
+        <v>111.50096431</v>
       </c>
       <c r="G162" t="n">
-        <v>105.98717266</v>
+        <v>103.22503951</v>
       </c>
       <c r="H162" t="n">
-        <v>103.72797247</v>
+        <v>106.50779334</v>
       </c>
       <c r="I162" t="n">
-        <v>110.01923808</v>
+        <v>98.13746125999999</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>101.55226435</v>
+        <v>103.05958111</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="n">
-        <v>105.18138659</v>
+        <v>105.1347266</v>
       </c>
       <c r="E163" t="n">
-        <v>102.90765965</v>
+        <v>104.77095981</v>
       </c>
       <c r="F163" t="n">
-        <v>113.89639223</v>
+        <v>100.33671857</v>
       </c>
       <c r="G163" t="n">
-        <v>102.67752386</v>
+        <v>104.92613153</v>
       </c>
       <c r="H163" t="n">
-        <v>105.04920608</v>
+        <v>111.39133375</v>
       </c>
       <c r="I163" t="n">
-        <v>89.7162465</v>
+        <v>109.69350427</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>101.97016644</v>
+        <v>103.06986609</v>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="n">
-        <v>105.18377978</v>
+        <v>105.12031479</v>
       </c>
       <c r="E164" t="n">
-        <v>101.49920011</v>
+        <v>105.87617693</v>
       </c>
       <c r="F164" t="n">
-        <v>112.25682972</v>
+        <v>101.29036847</v>
       </c>
       <c r="G164" t="n">
-        <v>104.04742827</v>
+        <v>105.01583473</v>
       </c>
       <c r="H164" t="n">
-        <v>105.29565572</v>
+        <v>107.26685734</v>
       </c>
       <c r="I164" t="n">
-        <v>105.91982938</v>
+        <v>111.80849636</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>102.22915362</v>
+        <v>104.31207667</v>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="n">
-        <v>105.13717479</v>
+        <v>104.72435907</v>
       </c>
       <c r="E165" t="n">
-        <v>101.6159256</v>
+        <v>107.16861279</v>
       </c>
       <c r="F165" t="n">
-        <v>111.50096431</v>
+        <v>100.25546545</v>
       </c>
       <c r="G165" t="n">
-        <v>103.22503951</v>
+        <v>104.72845237</v>
       </c>
       <c r="H165" t="n">
-        <v>106.50779334</v>
+        <v>107.52966754</v>
       </c>
       <c r="I165" t="n">
-        <v>98.13746125999999</v>
+        <v>105.21817088</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>103.05958111</v>
+        <v>105.91323498</v>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="n">
-        <v>105.1347266</v>
+        <v>103.98581779</v>
       </c>
       <c r="E166" t="n">
-        <v>104.77095981</v>
+        <v>106.63013763</v>
       </c>
       <c r="F166" t="n">
-        <v>100.33671857</v>
+        <v>101.34943115</v>
       </c>
       <c r="G166" t="n">
-        <v>104.92613153</v>
+        <v>106.09877765</v>
       </c>
       <c r="H166" t="n">
-        <v>111.39133375</v>
+        <v>112.48438381</v>
       </c>
       <c r="I166" t="n">
-        <v>109.69350427</v>
+        <v>118.94211636</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>103.06986609</v>
+        <v>106.36156283</v>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="n">
-        <v>105.12031479</v>
+        <v>103.81265786</v>
       </c>
       <c r="E167" t="n">
-        <v>105.87617693</v>
+        <v>105.83000695</v>
       </c>
       <c r="F167" t="n">
-        <v>101.29036847</v>
+        <v>99.26149061</v>
       </c>
       <c r="G167" t="n">
-        <v>105.01583473</v>
+        <v>106.54862744</v>
       </c>
       <c r="H167" t="n">
-        <v>107.26685734</v>
+        <v>108.82553125</v>
       </c>
       <c r="I167" t="n">
-        <v>111.80849636</v>
+        <v>131.54015193</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>104.31207667</v>
+        <v>106.48155566</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="n">
-        <v>104.72435907</v>
+        <v>103.9640332</v>
       </c>
       <c r="E168" t="n">
-        <v>107.16861279</v>
+        <v>105.50293188</v>
       </c>
       <c r="F168" t="n">
-        <v>100.25546545</v>
+        <v>98.3410662</v>
       </c>
       <c r="G168" t="n">
-        <v>104.72845237</v>
+        <v>105.94138655</v>
       </c>
       <c r="H168" t="n">
-        <v>107.52966754</v>
+        <v>110.63322472</v>
       </c>
       <c r="I168" t="n">
-        <v>105.21817088</v>
+        <v>122.33829113</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>105.91323498</v>
+        <v>105.49930282</v>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="n">
-        <v>103.98581779</v>
+        <v>103.83369392</v>
       </c>
       <c r="E169" t="n">
-        <v>106.63013763</v>
+        <v>103.56037749</v>
       </c>
       <c r="F169" t="n">
-        <v>101.34943115</v>
+        <v>95.93698304</v>
       </c>
       <c r="G169" t="n">
-        <v>106.09877765</v>
+        <v>104.05320343</v>
       </c>
       <c r="H169" t="n">
-        <v>112.48438381</v>
+        <v>115.57830098</v>
       </c>
       <c r="I169" t="n">
-        <v>118.94211636</v>
+        <v>102.55391703</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>103.15713714</v>
+        <v>106.31378098</v>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="n">
-        <v>103.46264087</v>
+        <v>103.14086271</v>
       </c>
       <c r="E170" t="n">
-        <v>101.13122882</v>
+        <v>100.31927419</v>
       </c>
       <c r="F170" t="n">
-        <v>116.40621704</v>
+        <v>96.22810205</v>
       </c>
       <c r="G170" t="n">
-        <v>102.4955405</v>
+        <v>103.67182722</v>
       </c>
       <c r="H170" t="n">
-        <v>115.22357343</v>
+        <v>123.00269427</v>
       </c>
       <c r="I170" t="n">
-        <v>92.75109609</v>
+        <v>102.05216294</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>102.56561811</v>
+        <v>104.73204668</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="n">
-        <v>103.2125287</v>
+        <v>102.75915164</v>
       </c>
       <c r="E171" t="n">
-        <v>100.49437593</v>
+        <v>96.99225558000001</v>
       </c>
       <c r="F171" t="n">
-        <v>116.45551984</v>
+        <v>94.17061654</v>
       </c>
       <c r="G171" t="n">
-        <v>102.30858972</v>
+        <v>102.65078207</v>
       </c>
       <c r="H171" t="n">
-        <v>114.01818006</v>
+        <v>119.73115879</v>
       </c>
       <c r="I171" t="n">
-        <v>94.80670943</v>
+        <v>103.25843401</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>102.4445184</v>
+        <v>107.65937136</v>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="n">
-        <v>103.0326952</v>
+        <v>102.71979046</v>
       </c>
       <c r="E172" t="n">
-        <v>99.76039501</v>
+        <v>98.15465516</v>
       </c>
       <c r="F172" t="n">
-        <v>113.99300979</v>
+        <v>100.39526991</v>
       </c>
       <c r="G172" t="n">
-        <v>102.85637882</v>
+        <v>104.0724088</v>
       </c>
       <c r="H172" t="n">
-        <v>110.3724227</v>
+        <v>117.27984594</v>
       </c>
       <c r="I172" t="n">
-        <v>107.16602628</v>
+        <v>112.88349945</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>106.31378098</v>
+        <v>105.74633937</v>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="n">
-        <v>103.14086271</v>
+        <v>102.77333992</v>
       </c>
       <c r="E173" t="n">
-        <v>100.31927419</v>
+        <v>99.2919093</v>
       </c>
       <c r="F173" t="n">
-        <v>96.22810205</v>
+        <v>107.00169554</v>
       </c>
       <c r="G173" t="n">
-        <v>103.67182722</v>
+        <v>102.28615586</v>
       </c>
       <c r="H173" t="n">
-        <v>123.00269427</v>
+        <v>118.60004617</v>
       </c>
       <c r="I173" t="n">
-        <v>102.05216294</v>
+        <v>92.07061243</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>104.73204668</v>
+        <v>104.98635714</v>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="n">
-        <v>102.75915164</v>
+        <v>102.99674934</v>
       </c>
       <c r="E174" t="n">
-        <v>96.99225558000001</v>
+        <v>103.22733469</v>
       </c>
       <c r="F174" t="n">
-        <v>94.17061654</v>
+        <v>117.6281927</v>
       </c>
       <c r="G174" t="n">
-        <v>102.65078207</v>
+        <v>104.10203555</v>
       </c>
       <c r="H174" t="n">
-        <v>119.73115879</v>
+        <v>120.01910834</v>
       </c>
       <c r="I174" t="n">
-        <v>103.25843401</v>
+        <v>97.52604067999999</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>107.65937136</v>
+        <v>104.0460483</v>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="n">
-        <v>102.71979046</v>
+        <v>103.24053355</v>
       </c>
       <c r="E175" t="n">
-        <v>98.15465516</v>
+        <v>101.90269352</v>
       </c>
       <c r="F175" t="n">
-        <v>100.39526991</v>
+        <v>113.10633905</v>
       </c>
       <c r="G175" t="n">
-        <v>104.0724088</v>
+        <v>103.68307327</v>
       </c>
       <c r="H175" t="n">
-        <v>117.27984594</v>
+        <v>119.81061791</v>
       </c>
       <c r="I175" t="n">
-        <v>112.88349945</v>
+        <v>98.2288811</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>105.74633937</v>
+        <v>103.93732988</v>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="n">
-        <v>102.77333992</v>
+        <v>103.34865194</v>
       </c>
       <c r="E176" t="n">
-        <v>99.2919093</v>
+        <v>101.08281935</v>
       </c>
       <c r="F176" t="n">
-        <v>107.00169554</v>
+        <v>119.5185055</v>
       </c>
       <c r="G176" t="n">
-        <v>102.28615586</v>
+        <v>103.59803117</v>
       </c>
       <c r="H176" t="n">
-        <v>118.60004617</v>
+        <v>120.13682754</v>
       </c>
       <c r="I176" t="n">
-        <v>92.07061243</v>
+        <v>98.36215514</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>104.98635714</v>
+        <v>103.84222319</v>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="n">
-        <v>102.99674934</v>
+        <v>103.39178373</v>
       </c>
       <c r="E177" t="n">
-        <v>103.22733469</v>
+        <v>101.0940394</v>
       </c>
       <c r="F177" t="n">
-        <v>117.6281927</v>
+        <v>118.69595093</v>
       </c>
       <c r="G177" t="n">
-        <v>104.10203555</v>
+        <v>103.04571827</v>
       </c>
       <c r="H177" t="n">
-        <v>120.01910834</v>
+        <v>121.21199646</v>
       </c>
       <c r="I177" t="n">
-        <v>97.52604067999999</v>
+        <v>93.07869377</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>104.0460483</v>
+        <v>103.20753068</v>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="n">
-        <v>103.24053355</v>
+        <v>103.44489388</v>
       </c>
       <c r="E178" t="n">
-        <v>101.90269352</v>
+        <v>101.17239949</v>
       </c>
       <c r="F178" t="n">
-        <v>113.10633905</v>
+        <v>112.93870735</v>
       </c>
       <c r="G178" t="n">
-        <v>103.68307327</v>
+        <v>102.322785</v>
       </c>
       <c r="H178" t="n">
-        <v>119.81061791</v>
+        <v>116.72396431</v>
       </c>
       <c r="I178" t="n">
-        <v>98.2288811</v>
+        <v>90.61194448000001</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>103.93732988</v>
+        <v>103.15713714</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
-        <v>103.34865194</v>
+        <v>103.46264087</v>
       </c>
       <c r="E179" t="n">
-        <v>101.08281935</v>
+        <v>101.13122882</v>
       </c>
       <c r="F179" t="n">
-        <v>119.5185055</v>
+        <v>116.40621704</v>
       </c>
       <c r="G179" t="n">
-        <v>103.59803117</v>
+        <v>102.4955405</v>
       </c>
       <c r="H179" t="n">
-        <v>120.13682754</v>
+        <v>115.22357343</v>
       </c>
       <c r="I179" t="n">
-        <v>98.36215514</v>
+        <v>92.75109609</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>103.84222319</v>
+        <v>102.56561811</v>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="n">
-        <v>103.39178373</v>
+        <v>103.2125287</v>
       </c>
       <c r="E180" t="n">
-        <v>101.0940394</v>
+        <v>100.49437593</v>
       </c>
       <c r="F180" t="n">
-        <v>118.69595093</v>
+        <v>116.45551984</v>
       </c>
       <c r="G180" t="n">
-        <v>103.04571827</v>
+        <v>102.30858972</v>
       </c>
       <c r="H180" t="n">
-        <v>121.21199646</v>
+        <v>114.01818006</v>
       </c>
       <c r="I180" t="n">
-        <v>93.07869377</v>
+        <v>94.80670943</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>103.20753068</v>
+        <v>102.4445184</v>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="n">
-        <v>103.44489388</v>
+        <v>103.0326952</v>
       </c>
       <c r="E181" t="n">
-        <v>101.17239949</v>
+        <v>99.76039501</v>
       </c>
       <c r="F181" t="n">
-        <v>112.93870735</v>
+        <v>113.99300979</v>
       </c>
       <c r="G181" t="n">
-        <v>102.322785</v>
+        <v>102.85637882</v>
       </c>
       <c r="H181" t="n">
-        <v>116.72396431</v>
+        <v>110.3724227</v>
       </c>
       <c r="I181" t="n">
-        <v>90.61194448000001</v>
+        <v>107.16602628</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>102.08889265</v>
+        <v>100.35674073</v>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="n">
-        <v>101.21306896</v>
+        <v>102.90173346</v>
       </c>
       <c r="E182" t="n">
-        <v>107.16460554</v>
+        <v>99.17374796</v>
       </c>
       <c r="F182" t="n">
-        <v>86.16570939</v>
+        <v>108.3417483</v>
       </c>
       <c r="G182" t="n">
-        <v>101.94147357</v>
+        <v>101.10924251</v>
       </c>
       <c r="H182" t="n">
-        <v>90.85607779</v>
+        <v>103.27369752</v>
       </c>
       <c r="I182" t="n">
-        <v>104.67198379</v>
+        <v>99.3584149</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>102.27542049</v>
+        <v>102.06462385</v>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="n">
-        <v>101.13040297</v>
+        <v>102.85099312</v>
       </c>
       <c r="E183" t="n">
-        <v>106.23456566</v>
+        <v>101.3812362</v>
       </c>
       <c r="F183" t="n">
-        <v>86.38382059</v>
+        <v>111.36765622</v>
       </c>
       <c r="G183" t="n">
-        <v>102.32217159</v>
+        <v>102.36570318</v>
       </c>
       <c r="H183" t="n">
-        <v>92.77159099000001</v>
+        <v>104.0856981</v>
       </c>
       <c r="I183" t="n">
-        <v>109.40953689</v>
+        <v>104.31743957</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>102.54937203</v>
+        <v>101.64710086</v>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="n">
-        <v>101.15047353</v>
+        <v>102.7218143</v>
       </c>
       <c r="E184" t="n">
-        <v>106.18484534</v>
+        <v>103.17308408</v>
       </c>
       <c r="F184" t="n">
-        <v>88.92282133</v>
+        <v>105.6205204</v>
       </c>
       <c r="G184" t="n">
-        <v>102.70606282</v>
+        <v>102.33295635</v>
       </c>
       <c r="H184" t="n">
-        <v>93.11545479</v>
+        <v>106.69217656</v>
       </c>
       <c r="I184" t="n">
-        <v>111.75010173</v>
+        <v>100.41676191</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>100.35674073</v>
+        <v>101.13999002</v>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="n">
-        <v>102.90173346</v>
+        <v>102.67190331</v>
       </c>
       <c r="E185" t="n">
-        <v>99.17374796</v>
+        <v>104.99303364</v>
       </c>
       <c r="F185" t="n">
-        <v>108.3417483</v>
+        <v>96.27778927</v>
       </c>
       <c r="G185" t="n">
-        <v>101.10924251</v>
+        <v>102.73147341</v>
       </c>
       <c r="H185" t="n">
-        <v>103.27369752</v>
+        <v>101.53206443</v>
       </c>
       <c r="I185" t="n">
-        <v>99.3584149</v>
+        <v>107.22907694</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>102.06462385</v>
+        <v>100.89369933</v>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="n">
-        <v>102.85099312</v>
+        <v>102.43920056</v>
       </c>
       <c r="E186" t="n">
-        <v>101.3812362</v>
+        <v>103.08417195</v>
       </c>
       <c r="F186" t="n">
-        <v>111.36765622</v>
+        <v>86.84745735</v>
       </c>
       <c r="G186" t="n">
-        <v>102.36570318</v>
+        <v>101.59853348</v>
       </c>
       <c r="H186" t="n">
-        <v>104.0856981</v>
+        <v>96.75128116</v>
       </c>
       <c r="I186" t="n">
-        <v>104.31743957</v>
+        <v>106.54100003</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>101.64710086</v>
+        <v>101.94361794</v>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="n">
-        <v>102.7218143</v>
+        <v>102.06302071</v>
       </c>
       <c r="E187" t="n">
-        <v>103.17308408</v>
+        <v>103.56266166</v>
       </c>
       <c r="F187" t="n">
-        <v>105.6205204</v>
+        <v>88.69439404000001</v>
       </c>
       <c r="G187" t="n">
-        <v>102.33295635</v>
+        <v>101.85438798</v>
       </c>
       <c r="H187" t="n">
-        <v>106.69217656</v>
+        <v>91.23172271</v>
       </c>
       <c r="I187" t="n">
-        <v>100.41676191</v>
+        <v>111.44066804</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>101.13999002</v>
+        <v>102.59286655</v>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="n">
-        <v>102.67190331</v>
+        <v>101.92871191</v>
       </c>
       <c r="E188" t="n">
-        <v>104.99303364</v>
+        <v>107.6416124</v>
       </c>
       <c r="F188" t="n">
-        <v>96.27778927</v>
+        <v>85.71737007</v>
       </c>
       <c r="G188" t="n">
-        <v>102.73147341</v>
+        <v>102.72729016</v>
       </c>
       <c r="H188" t="n">
-        <v>101.53206443</v>
+        <v>91.58686135000001</v>
       </c>
       <c r="I188" t="n">
-        <v>107.22907694</v>
+        <v>110.48394568</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>100.89369933</v>
+        <v>102.3758319</v>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="n">
-        <v>102.43920056</v>
+        <v>101.7398036</v>
       </c>
       <c r="E189" t="n">
-        <v>103.08417195</v>
+        <v>109.2634217</v>
       </c>
       <c r="F189" t="n">
-        <v>86.84745735</v>
+        <v>88.83746635999999</v>
       </c>
       <c r="G189" t="n">
-        <v>101.59853348</v>
+        <v>103.67717501</v>
       </c>
       <c r="H189" t="n">
-        <v>96.75128116</v>
+        <v>91.93643994999999</v>
       </c>
       <c r="I189" t="n">
-        <v>106.54100003</v>
+        <v>115.9030056</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>101.94361794</v>
+        <v>101.87663168</v>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="n">
-        <v>102.06302071</v>
+        <v>101.41516576</v>
       </c>
       <c r="E190" t="n">
-        <v>103.56266166</v>
+        <v>108.15403441</v>
       </c>
       <c r="F190" t="n">
-        <v>88.69439404000001</v>
+        <v>89.76367741999999</v>
       </c>
       <c r="G190" t="n">
-        <v>101.85438798</v>
+        <v>102.72358896</v>
       </c>
       <c r="H190" t="n">
-        <v>91.23172271</v>
+        <v>89.27781272</v>
       </c>
       <c r="I190" t="n">
-        <v>111.44066804</v>
+        <v>110.3788502</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>102.59286655</v>
+        <v>102.08889265</v>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="n">
-        <v>101.92871191</v>
+        <v>101.21306896</v>
       </c>
       <c r="E191" t="n">
-        <v>107.6416124</v>
+        <v>107.16460554</v>
       </c>
       <c r="F191" t="n">
-        <v>85.71737007</v>
+        <v>86.16570939</v>
       </c>
       <c r="G191" t="n">
-        <v>102.72729016</v>
+        <v>101.94147357</v>
       </c>
       <c r="H191" t="n">
-        <v>91.58686135000001</v>
+        <v>90.85607779</v>
       </c>
       <c r="I191" t="n">
-        <v>110.48394568</v>
+        <v>104.67198379</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>102.3758319</v>
+        <v>102.27542049</v>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="n">
-        <v>101.7398036</v>
+        <v>101.13040297</v>
       </c>
       <c r="E192" t="n">
-        <v>109.2634217</v>
+        <v>106.23456566</v>
       </c>
       <c r="F192" t="n">
-        <v>88.83746635999999</v>
+        <v>86.38382059</v>
       </c>
       <c r="G192" t="n">
-        <v>103.67717501</v>
+        <v>102.32217159</v>
       </c>
       <c r="H192" t="n">
-        <v>91.93643994999999</v>
+        <v>92.77159099000001</v>
       </c>
       <c r="I192" t="n">
-        <v>115.9030056</v>
+        <v>109.40953689</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>101.87663168</v>
+        <v>102.54937203</v>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="n">
-        <v>101.41516576</v>
+        <v>101.15047353</v>
       </c>
       <c r="E193" t="n">
-        <v>108.15403441</v>
+        <v>106.18484534</v>
       </c>
       <c r="F193" t="n">
-        <v>89.76367741999999</v>
+        <v>88.92282133</v>
       </c>
       <c r="G193" t="n">
-        <v>102.72358896</v>
+        <v>102.70606282</v>
       </c>
       <c r="H193" t="n">
-        <v>89.27781272</v>
+        <v>93.11545479</v>
       </c>
       <c r="I193" t="n">
-        <v>110.3788502</v>
+        <v>111.75010173</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>104.988783499999</v>
+        <v>102.68656102</v>
       </c>
       <c r="C194" t="n">
-        <v>103.820052399999</v>
+        <v>110.83326239</v>
       </c>
       <c r="D194" t="n">
-        <v>100.3676952</v>
+        <v>100.74808847</v>
       </c>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="n">
-        <v>97.6456473599999</v>
+        <v>96.07793900999999</v>
       </c>
       <c r="G194" t="n">
-        <v>103.7</v>
+        <v>104.1</v>
       </c>
       <c r="H194" t="n">
-        <v>105.9663884</v>
+        <v>93.21154645</v>
       </c>
       <c r="I194" t="n">
-        <v>112.9737209</v>
+        <v>114.67658987</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>105.0341454</v>
+        <v>103.45278152</v>
       </c>
       <c r="C195" t="n">
-        <v>104.3296515</v>
+        <v>115.0948217</v>
       </c>
       <c r="D195" t="n">
-        <v>100.6663012</v>
+        <v>100.6336046</v>
       </c>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="n">
-        <v>97.84613419999999</v>
+        <v>96.44615623999999</v>
       </c>
       <c r="G195" t="n">
-        <v>104</v>
+        <v>107.3</v>
       </c>
       <c r="H195" t="n">
-        <v>102.8228215</v>
+        <v>92.09864446</v>
       </c>
       <c r="I195" t="n">
-        <v>115.8318196</v>
+        <v>130.58410851</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>104.2706169</v>
+        <v>102.6959769</v>
       </c>
       <c r="C196" t="n">
-        <v>104.8319065</v>
+        <v>116.49226152</v>
       </c>
       <c r="D196" t="n">
-        <v>100.9435553</v>
+        <v>100.46979544</v>
       </c>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="n">
-        <v>95.50300008000001</v>
+        <v>94.24265007</v>
       </c>
       <c r="G196" t="n">
-        <v>102.4</v>
+        <v>107.6</v>
       </c>
       <c r="H196" t="n">
-        <v>103.1670689</v>
+        <v>89.78703914</v>
       </c>
       <c r="I196" t="n">
-        <v>102.6100717</v>
+        <v>135.76598537</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>102.68656102</v>
+        <v>104.1223641</v>
       </c>
       <c r="C197" t="n">
-        <v>110.83326239</v>
+        <v>120.07758735</v>
       </c>
       <c r="D197" t="n">
-        <v>100.74808847</v>
+        <v>100.4274343</v>
       </c>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="n">
-        <v>96.07793900999999</v>
+        <v>98.43509353</v>
       </c>
       <c r="G197" t="n">
-        <v>104.1</v>
+        <v>107.4</v>
       </c>
       <c r="H197" t="n">
-        <v>93.21154645</v>
+        <v>92.11734041</v>
       </c>
       <c r="I197" t="n">
-        <v>114.67658987</v>
+        <v>122.64515411</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>103.45278152</v>
+        <v>104.85006322</v>
       </c>
       <c r="C198" t="n">
-        <v>115.0948217</v>
+        <v>120.83046037</v>
       </c>
       <c r="D198" t="n">
-        <v>100.6336046</v>
+        <v>100.55782558</v>
       </c>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="n">
-        <v>96.44615623999999</v>
+        <v>99.78488511</v>
       </c>
       <c r="G198" t="n">
-        <v>107.3</v>
+        <v>105.9</v>
       </c>
       <c r="H198" t="n">
-        <v>92.09864446</v>
+        <v>92.40729444</v>
       </c>
       <c r="I198" t="n">
-        <v>130.58410851</v>
+        <v>106.40620567</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>102.6959769</v>
+        <v>105.4987525</v>
       </c>
       <c r="C199" t="n">
-        <v>116.49226152</v>
+        <v>119.21220801</v>
       </c>
       <c r="D199" t="n">
-        <v>100.46979544</v>
+        <v>100.61649531</v>
       </c>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="n">
-        <v>94.24265007</v>
+        <v>100.29376668</v>
       </c>
       <c r="G199" t="n">
-        <v>107.6</v>
+        <v>104.6</v>
       </c>
       <c r="H199" t="n">
-        <v>89.78703914</v>
+        <v>96.59789137</v>
       </c>
       <c r="I199" t="n">
-        <v>135.76598537</v>
+        <v>93.52818610999999</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>104.1223641</v>
+        <v>105.81088308</v>
       </c>
       <c r="C200" t="n">
-        <v>120.07758735</v>
+        <v>111.30733376</v>
       </c>
       <c r="D200" t="n">
-        <v>100.4274343</v>
+        <v>100.44604436</v>
       </c>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="n">
-        <v>98.43509353</v>
+        <v>98.03584773999999</v>
       </c>
       <c r="G200" t="n">
-        <v>107.4</v>
+        <v>103.3</v>
       </c>
       <c r="H200" t="n">
-        <v>92.11734041</v>
+        <v>100.45874883</v>
       </c>
       <c r="I200" t="n">
-        <v>122.64515411</v>
+        <v>95.67070351</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>104.85006322</v>
+        <v>105.38678623</v>
       </c>
       <c r="C201" t="n">
-        <v>120.83046037</v>
+        <v>105.0084951</v>
       </c>
       <c r="D201" t="n">
-        <v>100.55782558</v>
+        <v>100.27420096</v>
       </c>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="n">
-        <v>99.78488511</v>
+        <v>92.63829111</v>
       </c>
       <c r="G201" t="n">
-        <v>105.9</v>
+        <v>101.3</v>
       </c>
       <c r="H201" t="n">
-        <v>92.40729444</v>
+        <v>99.41942619</v>
       </c>
       <c r="I201" t="n">
-        <v>106.40620567</v>
+        <v>96.0997615</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>105.4987525</v>
+        <v>106.065002699999</v>
       </c>
       <c r="C202" t="n">
-        <v>119.21220801</v>
+        <v>104.4369413</v>
       </c>
       <c r="D202" t="n">
-        <v>100.61649531</v>
+        <v>100.2151146</v>
       </c>
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="n">
-        <v>100.29376668</v>
+        <v>95.43722916</v>
       </c>
       <c r="G202" t="n">
-        <v>104.6</v>
+        <v>103.2</v>
       </c>
       <c r="H202" t="n">
-        <v>96.59789137</v>
+        <v>106.7010496</v>
       </c>
       <c r="I202" t="n">
-        <v>93.52818610999999</v>
+        <v>107.511825999999</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>105.81088308</v>
+        <v>104.988783499999</v>
       </c>
       <c r="C203" t="n">
-        <v>111.30733376</v>
+        <v>103.820052399999</v>
       </c>
       <c r="D203" t="n">
-        <v>100.44604436</v>
+        <v>100.3676952</v>
       </c>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="n">
-        <v>98.03584773999999</v>
+        <v>97.6456473599999</v>
       </c>
       <c r="G203" t="n">
-        <v>103.3</v>
+        <v>103.7</v>
       </c>
       <c r="H203" t="n">
-        <v>100.45874883</v>
+        <v>105.9663884</v>
       </c>
       <c r="I203" t="n">
-        <v>95.67070351</v>
+        <v>112.9737209</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>105.38678623</v>
+        <v>105.0341454</v>
       </c>
       <c r="C204" t="n">
-        <v>105.0084951</v>
+        <v>104.3296515</v>
       </c>
       <c r="D204" t="n">
-        <v>100.27420096</v>
+        <v>100.6663012</v>
       </c>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="n">
-        <v>92.63829111</v>
+        <v>97.84613419999999</v>
       </c>
       <c r="G204" t="n">
-        <v>101.3</v>
+        <v>104</v>
       </c>
       <c r="H204" t="n">
-        <v>99.41942619</v>
+        <v>102.8228215</v>
       </c>
       <c r="I204" t="n">
-        <v>96.0997615</v>
+        <v>115.8318196</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>106.065002699999</v>
+        <v>104.2706169</v>
       </c>
       <c r="C205" t="n">
-        <v>104.4369413</v>
+        <v>104.8319065</v>
       </c>
       <c r="D205" t="n">
-        <v>100.2151146</v>
+        <v>100.9435553</v>
       </c>
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="n">
-        <v>95.43722916</v>
+        <v>95.50300008000001</v>
       </c>
       <c r="G205" t="n">
-        <v>103.2</v>
+        <v>102.4</v>
       </c>
       <c r="H205" t="n">
-        <v>106.7010496</v>
+        <v>103.1670689</v>
       </c>
       <c r="I205" t="n">
-        <v>107.511825999999</v>
+        <v>102.6100717</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>103.8233053</v>
+        <v>106.413361</v>
       </c>
       <c r="C206" t="n">
-        <v>94.3429678</v>
+        <v>105.7277392</v>
       </c>
       <c r="D206" t="n">
-        <v>101.6284004</v>
+        <v>101.2481293</v>
       </c>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="n">
-        <v>103.0642792</v>
+        <v>90.91232419000001</v>
       </c>
       <c r="G206" t="n">
-        <v>99.59999999999999</v>
+        <v>102.7</v>
       </c>
       <c r="H206" t="n">
-        <v>99.27371667</v>
+        <v>104.8362146</v>
       </c>
       <c r="I206" t="n">
-        <v>100.3173598</v>
+        <v>101.6093921</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>103.2164191</v>
+        <v>102.19038593</v>
       </c>
       <c r="C207" t="n">
-        <v>95.24068581</v>
+        <v>99.93260764999999</v>
       </c>
       <c r="D207" t="n">
-        <v>101.496307</v>
+        <v>101.19088166</v>
       </c>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="n">
-        <v>105.5538317</v>
+        <v>85.12995839</v>
       </c>
       <c r="G207" t="n">
-        <v>98.90000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="H207" t="n">
-        <v>103.6732273</v>
+        <v>102.12710849</v>
       </c>
       <c r="I207" t="n">
-        <v>90.52026639</v>
+        <v>73.96674317999999</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>104.0122476</v>
+        <v>104.8170676</v>
       </c>
       <c r="C208" t="n">
-        <v>95.80562854</v>
+        <v>98.68818865</v>
       </c>
       <c r="D208" t="n">
-        <v>101.319215</v>
+        <v>101.3868089</v>
       </c>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="n">
-        <v>111.4361228</v>
+        <v>88.23640097000001</v>
       </c>
       <c r="G208" t="n">
-        <v>99.59999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="H208" t="n">
-        <v>106.308582</v>
+        <v>102.9586921</v>
       </c>
       <c r="I208" t="n">
-        <v>91.36144181</v>
+        <v>72.12930578</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>106.413361</v>
+        <v>105.8851665</v>
       </c>
       <c r="C209" t="n">
-        <v>105.7277392</v>
+        <v>95.38593184</v>
       </c>
       <c r="D209" t="n">
-        <v>101.2481293</v>
+        <v>101.483912</v>
       </c>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="n">
-        <v>90.91232419000001</v>
+        <v>88.56506207</v>
       </c>
       <c r="G209" t="n">
-        <v>102.7</v>
+        <v>96.5</v>
       </c>
       <c r="H209" t="n">
-        <v>104.8362146</v>
+        <v>105.8818518</v>
       </c>
       <c r="I209" t="n">
-        <v>101.6093921</v>
+        <v>78.37914256000001</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>102.19038593</v>
+        <v>106.8573274</v>
       </c>
       <c r="C210" t="n">
-        <v>99.93260764999999</v>
+        <v>92.21824992000001</v>
       </c>
       <c r="D210" t="n">
-        <v>101.19088166</v>
+        <v>101.4167044</v>
       </c>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="n">
-        <v>85.12995839</v>
+        <v>85.59070411</v>
       </c>
       <c r="G210" t="n">
-        <v>95.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="H210" t="n">
-        <v>102.12710849</v>
+        <v>111.8363628</v>
       </c>
       <c r="I210" t="n">
-        <v>73.96674317999999</v>
+        <v>93.69467424</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>104.8170676</v>
+        <v>105.1207857</v>
       </c>
       <c r="C211" t="n">
-        <v>98.68818865</v>
+        <v>89.46138117</v>
       </c>
       <c r="D211" t="n">
-        <v>101.3868089</v>
+        <v>101.5220013</v>
       </c>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="n">
-        <v>88.23640097000001</v>
+        <v>90.73445012000001</v>
       </c>
       <c r="G211" t="n">
-        <v>95.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="H211" t="n">
-        <v>102.9586921</v>
+        <v>109.8745477</v>
       </c>
       <c r="I211" t="n">
-        <v>72.12930578</v>
+        <v>105.816255</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>105.8851665</v>
+        <v>104.3272824</v>
       </c>
       <c r="C212" t="n">
-        <v>95.38593184</v>
+        <v>90.16953409</v>
       </c>
       <c r="D212" t="n">
-        <v>101.483912</v>
+        <v>101.5670189</v>
       </c>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="n">
-        <v>88.56506207</v>
+        <v>95.13730664000001</v>
       </c>
       <c r="G212" t="n">
-        <v>96.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="H212" t="n">
-        <v>105.8818518</v>
+        <v>101.709821</v>
       </c>
       <c r="I212" t="n">
-        <v>78.37914256000001</v>
+        <v>109.1247493</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>106.8573274</v>
+        <v>103.7785437</v>
       </c>
       <c r="C213" t="n">
-        <v>92.21824992000001</v>
+        <v>91.59256044999999</v>
       </c>
       <c r="D213" t="n">
-        <v>101.4167044</v>
+        <v>101.5927467</v>
       </c>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="n">
-        <v>85.59070411</v>
+        <v>104.3181382</v>
       </c>
       <c r="G213" t="n">
-        <v>98.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="H213" t="n">
-        <v>111.8363628</v>
+        <v>100.020248</v>
       </c>
       <c r="I213" t="n">
-        <v>93.69467424</v>
+        <v>109.7167949</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>105.1207857</v>
+        <v>102.5185458</v>
       </c>
       <c r="C214" t="n">
-        <v>89.46138117</v>
+        <v>92.47208258000001</v>
       </c>
       <c r="D214" t="n">
-        <v>101.5220013</v>
+        <v>101.6903257</v>
       </c>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="n">
-        <v>90.73445012000001</v>
+        <v>103.7030687</v>
       </c>
       <c r="G214" t="n">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="H214" t="n">
-        <v>109.8745477</v>
+        <v>96.95034841</v>
       </c>
       <c r="I214" t="n">
-        <v>105.816255</v>
+        <v>99.02611507</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>104.3272824</v>
+        <v>103.8233053</v>
       </c>
       <c r="C215" t="n">
-        <v>90.16953409</v>
+        <v>94.3429678</v>
       </c>
       <c r="D215" t="n">
-        <v>101.5670189</v>
+        <v>101.6284004</v>
       </c>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="n">
-        <v>95.13730664000001</v>
+        <v>103.0642792</v>
       </c>
       <c r="G215" t="n">
-        <v>98.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H215" t="n">
-        <v>101.709821</v>
+        <v>99.27371667</v>
       </c>
       <c r="I215" t="n">
-        <v>109.1247493</v>
+        <v>100.3173598</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>103.7785437</v>
+        <v>103.2164191</v>
       </c>
       <c r="C216" t="n">
-        <v>91.59256044999999</v>
+        <v>95.24068581</v>
       </c>
       <c r="D216" t="n">
-        <v>101.5927467</v>
+        <v>101.496307</v>
       </c>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="n">
-        <v>104.3181382</v>
+        <v>105.5538317</v>
       </c>
       <c r="G216" t="n">
-        <v>99.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="H216" t="n">
-        <v>100.020248</v>
+        <v>103.6732273</v>
       </c>
       <c r="I216" t="n">
-        <v>109.7167949</v>
+        <v>90.52026639</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>102.5185458</v>
+        <v>104.0122476</v>
       </c>
       <c r="C217" t="n">
-        <v>92.47208258000001</v>
+        <v>95.80562854</v>
       </c>
       <c r="D217" t="n">
-        <v>101.6903257</v>
+        <v>101.319215</v>
       </c>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="n">
-        <v>103.7030687</v>
+        <v>111.4361228</v>
       </c>
       <c r="G217" t="n">
-        <v>98.59999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H217" t="n">
-        <v>96.95034841</v>
+        <v>106.308582</v>
       </c>
       <c r="I217" t="n">
-        <v>99.02611507</v>
+        <v>91.36144181</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>100.81213527</v>
+        <v>102.4150281</v>
       </c>
       <c r="C218" t="n">
-        <v>100.35177324</v>
+        <v>94.10588506000001</v>
       </c>
       <c r="D218" t="n">
-        <v>100.55882708</v>
+        <v>101.1979638</v>
       </c>
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="n">
-        <v>108.53073781</v>
+        <v>114.2192474</v>
       </c>
       <c r="G218" t="n">
-        <v>103.3</v>
+        <v>99.5</v>
       </c>
       <c r="H218" t="n">
-        <v>111.5439392</v>
+        <v>106.3708737</v>
       </c>
       <c r="I218" t="n">
-        <v>110.1397155</v>
+        <v>94.22586681999999</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>101.96161091</v>
+        <v>108.6760753</v>
       </c>
       <c r="C219" t="n">
-        <v>100.79807734</v>
+        <v>96.85042392</v>
       </c>
       <c r="D219" t="n">
-        <v>100.5835309</v>
+        <v>101.1275275</v>
       </c>
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="n">
-        <v>106.39639729</v>
+        <v>122.4797518</v>
       </c>
       <c r="G219" t="n">
-        <v>102.5</v>
+        <v>104.4</v>
       </c>
       <c r="H219" t="n">
-        <v>113.26263695</v>
+        <v>108.7007221</v>
       </c>
       <c r="I219" t="n">
-        <v>101.47176004</v>
+        <v>117.6950644</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>102.00150354</v>
+        <v>105.5872669</v>
       </c>
       <c r="C220" t="n">
-        <v>100.84503899</v>
+        <v>93.90342221</v>
       </c>
       <c r="D220" t="n">
-        <v>100.49485095</v>
+        <v>101.1171711</v>
       </c>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="n">
-        <v>100.65669445</v>
+        <v>117.5628592</v>
       </c>
       <c r="G220" t="n">
-        <v>102.5</v>
+        <v>102.1</v>
       </c>
       <c r="H220" t="n">
-        <v>109.43116046</v>
+        <v>107.4348813</v>
       </c>
       <c r="I220" t="n">
-        <v>104.15311709</v>
+        <v>108.8498271</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>2018年1月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>102.4150281</v>
+        <v>102.8</v>
       </c>
       <c r="C221" t="n">
-        <v>94.10588506000001</v>
+        <v>91.2</v>
       </c>
       <c r="D221" t="n">
-        <v>101.1979638</v>
+        <v>101</v>
       </c>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="n">
-        <v>114.2192474</v>
+        <v>114.9</v>
       </c>
       <c r="G221" t="n">
-        <v>99.5</v>
+        <v>100.7</v>
       </c>
       <c r="H221" t="n">
-        <v>106.3708737</v>
+        <v>104.2</v>
       </c>
       <c r="I221" t="n">
-        <v>94.22586681999999</v>
+        <v>108.2</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>108.6760753</v>
+        <v>100.6</v>
       </c>
       <c r="C222" t="n">
-        <v>96.85042392</v>
+        <v>90.7</v>
       </c>
       <c r="D222" t="n">
-        <v>101.1275275</v>
+        <v>100.9</v>
       </c>
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="n">
-        <v>122.4797518</v>
+        <v>120.8</v>
       </c>
       <c r="G222" t="n">
-        <v>104.4</v>
+        <v>100.1</v>
       </c>
       <c r="H222" t="n">
-        <v>108.7007221</v>
+        <v>97.3</v>
       </c>
       <c r="I222" t="n">
-        <v>117.6950644</v>
+        <v>110</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>105.5872669</v>
+        <v>100.29180622</v>
       </c>
       <c r="C223" t="n">
-        <v>93.90342221</v>
+        <v>93.15206465999999</v>
       </c>
       <c r="D223" t="n">
-        <v>101.1171711</v>
+        <v>100.68422578</v>
       </c>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="n">
-        <v>117.5628592</v>
+        <v>115.10065132</v>
       </c>
       <c r="G223" t="n">
-        <v>102.1</v>
+        <v>100.3</v>
       </c>
       <c r="H223" t="n">
-        <v>107.4348813</v>
+        <v>94.69936260999999</v>
       </c>
       <c r="I223" t="n">
-        <v>108.8498271</v>
+        <v>109.28666291</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>102.8</v>
+        <v>100.12724701</v>
       </c>
       <c r="C224" t="n">
-        <v>91.2</v>
+        <v>95.10336205</v>
       </c>
       <c r="D224" t="n">
-        <v>101</v>
+        <v>100.59498092</v>
       </c>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="n">
-        <v>114.9</v>
+        <v>111.73095572</v>
       </c>
       <c r="G224" t="n">
-        <v>100.7</v>
+        <v>100.5</v>
       </c>
       <c r="H224" t="n">
-        <v>104.2</v>
+        <v>100.35920374</v>
       </c>
       <c r="I224" t="n">
-        <v>108.2</v>
+        <v>103.81775567</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>100.6</v>
+        <v>100.93417527</v>
       </c>
       <c r="C225" t="n">
-        <v>90.7</v>
+        <v>98.03199447999999</v>
       </c>
       <c r="D225" t="n">
-        <v>100.9</v>
+        <v>100.48861874</v>
       </c>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="n">
-        <v>120.8</v>
+        <v>110.22420872</v>
       </c>
       <c r="G225" t="n">
-        <v>100.1</v>
+        <v>101.7</v>
       </c>
       <c r="H225" t="n">
-        <v>97.3</v>
+        <v>105.54540773</v>
       </c>
       <c r="I225" t="n">
-        <v>110</v>
+        <v>104.30016974</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>100.29180622</v>
+        <v>101.18407789</v>
       </c>
       <c r="C226" t="n">
-        <v>93.15206465999999</v>
+        <v>99.58206966</v>
       </c>
       <c r="D226" t="n">
-        <v>100.68422578</v>
+        <v>100.49892301</v>
       </c>
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="n">
-        <v>115.10065132</v>
+        <v>107.0650435</v>
       </c>
       <c r="G226" t="n">
-        <v>100.3</v>
+        <v>103.6</v>
       </c>
       <c r="H226" t="n">
-        <v>94.69936260999999</v>
+        <v>110.16793844</v>
       </c>
       <c r="I226" t="n">
-        <v>109.28666291</v>
+        <v>114.55507953</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>100.12724701</v>
+        <v>100.81213527</v>
       </c>
       <c r="C227" t="n">
-        <v>95.10336205</v>
+        <v>100.35177324</v>
       </c>
       <c r="D227" t="n">
-        <v>100.59498092</v>
+        <v>100.55882708</v>
       </c>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="n">
-        <v>111.73095572</v>
+        <v>108.53073781</v>
       </c>
       <c r="G227" t="n">
-        <v>100.5</v>
+        <v>103.3</v>
       </c>
       <c r="H227" t="n">
-        <v>100.35920374</v>
+        <v>111.5439392</v>
       </c>
       <c r="I227" t="n">
-        <v>103.81775567</v>
+        <v>110.1397155</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>100.93417527</v>
+        <v>101.96161091</v>
       </c>
       <c r="C228" t="n">
-        <v>98.03199447999999</v>
+        <v>100.79807734</v>
       </c>
       <c r="D228" t="n">
-        <v>100.48861874</v>
+        <v>100.5835309</v>
       </c>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="n">
-        <v>110.22420872</v>
+        <v>106.39639729</v>
       </c>
       <c r="G228" t="n">
-        <v>101.7</v>
+        <v>102.5</v>
       </c>
       <c r="H228" t="n">
-        <v>105.54540773</v>
+        <v>113.26263695</v>
       </c>
       <c r="I228" t="n">
-        <v>104.30016974</v>
+        <v>101.47176004</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>101.18407789</v>
+        <v>102.00150354</v>
       </c>
       <c r="C229" t="n">
-        <v>99.58206966</v>
+        <v>100.84503899</v>
       </c>
       <c r="D229" t="n">
-        <v>100.49892301</v>
+        <v>100.49485095</v>
       </c>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="n">
-        <v>107.0650435</v>
+        <v>100.65669445</v>
       </c>
       <c r="G229" t="n">
-        <v>103.6</v>
+        <v>102.5</v>
       </c>
       <c r="H229" t="n">
-        <v>110.16793844</v>
+        <v>109.43116046</v>
       </c>
       <c r="I229" t="n">
-        <v>114.55507953</v>
+        <v>104.15311709</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>102.70830576</v>
+        <v>101.23484864</v>
       </c>
       <c r="C230" t="n">
-        <v>166.76806594</v>
+        <v>100.19451642</v>
       </c>
       <c r="D230" t="n">
-        <v>100.54080495</v>
+        <v>100.45680832</v>
       </c>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="n">
-        <v>110.43793643</v>
+        <v>100.29618555</v>
       </c>
       <c r="G230" t="n">
-        <v>115.5</v>
+        <v>101.9</v>
       </c>
       <c r="H230" t="n">
-        <v>99.66810473</v>
+        <v>105.85768356</v>
       </c>
       <c r="I230" t="n">
-        <v>89.81498277999999</v>
+        <v>103.78574164</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>102.36547815</v>
+        <v>97.45790005000001</v>
       </c>
       <c r="C231" t="n">
-        <v>174.53356936</v>
+        <v>99.10062451</v>
       </c>
       <c r="D231" t="n">
-        <v>100.65769444</v>
+        <v>100.49619248</v>
       </c>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="n">
-        <v>110.09852006</v>
+        <v>95.28374481</v>
       </c>
       <c r="G231" t="n">
-        <v>119.1</v>
+        <v>100.7</v>
       </c>
       <c r="H231" t="n">
-        <v>93.20887733000001</v>
+        <v>104.81780963</v>
       </c>
       <c r="I231" t="n">
-        <v>103.8895934</v>
+        <v>101.65204565</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>101.26351824</v>
+        <v>97.01890876</v>
       </c>
       <c r="C232" t="n">
-        <v>166.37178809</v>
+        <v>104.67813098</v>
       </c>
       <c r="D232" t="n">
-        <v>100.62810223</v>
+        <v>100.42894557</v>
       </c>
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="n">
-        <v>106.19610158</v>
+        <v>98.14431811</v>
       </c>
       <c r="G232" t="n">
-        <v>117.4</v>
+        <v>104.1</v>
       </c>
       <c r="H232" t="n">
-        <v>92.04816845000001</v>
+        <v>107.72999895</v>
       </c>
       <c r="I232" t="n">
-        <v>110.83670251</v>
+        <v>116.16845889</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>2019年1月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>101.23484864</v>
+        <v>98.60994723</v>
       </c>
       <c r="C233" t="n">
-        <v>100.19451642</v>
+        <v>110.11464499</v>
       </c>
       <c r="D233" t="n">
-        <v>100.45680832</v>
+        <v>100.44301881</v>
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="n">
-        <v>100.29618555</v>
+        <v>103.71498962</v>
       </c>
       <c r="G233" t="n">
-        <v>101.9</v>
+        <v>106.1</v>
       </c>
       <c r="H233" t="n">
-        <v>105.85768356</v>
+        <v>111.91966075</v>
       </c>
       <c r="I233" t="n">
-        <v>103.78574164</v>
+        <v>117.44847417</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>97.45790005000001</v>
+        <v>99.57159351</v>
       </c>
       <c r="C234" t="n">
-        <v>99.10062451</v>
+        <v>112.50280921</v>
       </c>
       <c r="D234" t="n">
-        <v>100.49619248</v>
+        <v>100.4850843</v>
       </c>
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="n">
-        <v>95.28374481</v>
+        <v>108.67836566</v>
       </c>
       <c r="G234" t="n">
-        <v>100.7</v>
+        <v>107.7</v>
       </c>
       <c r="H234" t="n">
-        <v>104.81780963</v>
+        <v>126.66175148</v>
       </c>
       <c r="I234" t="n">
-        <v>101.65204565</v>
+        <v>113.33908272</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>97.01890876</v>
+        <v>99.45199177000001</v>
       </c>
       <c r="C235" t="n">
-        <v>104.67813098</v>
+        <v>114.43846495</v>
       </c>
       <c r="D235" t="n">
-        <v>100.42894557</v>
+        <v>100.55610041</v>
       </c>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="n">
-        <v>98.14431811</v>
+        <v>106.24414427</v>
       </c>
       <c r="G235" t="n">
-        <v>104.1</v>
+        <v>108.3</v>
       </c>
       <c r="H235" t="n">
-        <v>107.72999895</v>
+        <v>142.71410673</v>
       </c>
       <c r="I235" t="n">
-        <v>116.16845889</v>
+        <v>104.24783901</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>98.60994723</v>
+        <v>100.24564263</v>
       </c>
       <c r="C236" t="n">
-        <v>110.11464499</v>
+        <v>118.22421768</v>
       </c>
       <c r="D236" t="n">
-        <v>100.44301881</v>
+        <v>100.60120287</v>
       </c>
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="n">
-        <v>103.71498962</v>
+        <v>110.46069203</v>
       </c>
       <c r="G236" t="n">
-        <v>106.1</v>
+        <v>109.1</v>
       </c>
       <c r="H236" t="n">
-        <v>111.91966075</v>
+        <v>139.06888936</v>
       </c>
       <c r="I236" t="n">
-        <v>117.44847417</v>
+        <v>105.1767159</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>99.57159351</v>
+        <v>101.45314476</v>
       </c>
       <c r="C237" t="n">
-        <v>112.50280921</v>
+        <v>130.88362511</v>
       </c>
       <c r="D237" t="n">
-        <v>100.4850843</v>
+        <v>100.70215401</v>
       </c>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="n">
-        <v>108.67836566</v>
+        <v>103.63857147</v>
       </c>
       <c r="G237" t="n">
-        <v>107.7</v>
+        <v>110</v>
       </c>
       <c r="H237" t="n">
-        <v>126.66175148</v>
+        <v>124.00747173</v>
       </c>
       <c r="I237" t="n">
-        <v>113.33908272</v>
+        <v>99.16701392</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>99.45199177000001</v>
+        <v>102.86150865</v>
       </c>
       <c r="C238" t="n">
-        <v>114.43846495</v>
+        <v>146.8820669</v>
       </c>
       <c r="D238" t="n">
-        <v>100.55610041</v>
+        <v>100.5855969</v>
       </c>
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="n">
-        <v>106.24414427</v>
+        <v>108.15008142</v>
       </c>
       <c r="G238" t="n">
-        <v>108.3</v>
+        <v>111.2</v>
       </c>
       <c r="H238" t="n">
-        <v>142.71410673</v>
+        <v>107.70783489</v>
       </c>
       <c r="I238" t="n">
-        <v>104.24783901</v>
+        <v>88.21372116000001</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>100.24564263</v>
+        <v>102.70830576</v>
       </c>
       <c r="C239" t="n">
-        <v>118.22421768</v>
+        <v>166.76806594</v>
       </c>
       <c r="D239" t="n">
-        <v>100.60120287</v>
+        <v>100.54080495</v>
       </c>
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="n">
-        <v>110.46069203</v>
+        <v>110.43793643</v>
       </c>
       <c r="G239" t="n">
-        <v>109.1</v>
+        <v>115.5</v>
       </c>
       <c r="H239" t="n">
-        <v>139.06888936</v>
+        <v>99.66810473</v>
       </c>
       <c r="I239" t="n">
-        <v>105.1767159</v>
+        <v>89.81498277999999</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>101.45314476</v>
+        <v>102.36547815</v>
       </c>
       <c r="C240" t="n">
-        <v>130.88362511</v>
+        <v>174.53356936</v>
       </c>
       <c r="D240" t="n">
-        <v>100.70215401</v>
+        <v>100.65769444</v>
       </c>
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="n">
-        <v>103.63857147</v>
+        <v>110.09852006</v>
       </c>
       <c r="G240" t="n">
-        <v>110</v>
+        <v>119.1</v>
       </c>
       <c r="H240" t="n">
-        <v>124.00747173</v>
+        <v>93.20887733000001</v>
       </c>
       <c r="I240" t="n">
-        <v>99.16701392</v>
+        <v>103.8895934</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>102.86150865</v>
+        <v>101.26351824</v>
       </c>
       <c r="C241" t="n">
-        <v>146.8820669</v>
+        <v>166.37178809</v>
       </c>
       <c r="D241" t="n">
-        <v>100.5855969</v>
+        <v>100.62810223</v>
       </c>
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="n">
-        <v>108.15008142</v>
+        <v>106.19610158</v>
       </c>
       <c r="G241" t="n">
-        <v>111.2</v>
+        <v>117.4</v>
       </c>
       <c r="H241" t="n">
-        <v>107.70783489</v>
+        <v>92.04816845000001</v>
       </c>
       <c r="I241" t="n">
-        <v>88.21372116000001</v>
+        <v>110.83670251</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>102.5</v>
+        <v>103.75160177</v>
       </c>
       <c r="C242" t="n">
-        <v>102</v>
+        <v>176.69469</v>
       </c>
       <c r="D242" t="n">
-        <v>101.5</v>
+        <v>100.45954383</v>
       </c>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="n">
-        <v>83.7</v>
+        <v>102.41688857</v>
       </c>
       <c r="G242" t="n">
-        <v>102.2</v>
+        <v>120.6</v>
       </c>
       <c r="H242" t="n">
-        <v>100.4</v>
+        <v>94.98365799</v>
       </c>
       <c r="I242" t="n">
-        <v>116.7</v>
+        <v>117.14019778</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>101</v>
+        <v>102.79186802</v>
       </c>
       <c r="C243" t="n">
-        <v>92.7</v>
+        <v>187.56855116</v>
       </c>
       <c r="D243" t="n">
-        <v>101.4</v>
+        <v>100.68646849</v>
       </c>
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="n">
-        <v>82.90000000000001</v>
+        <v>100.9828709</v>
       </c>
       <c r="G243" t="n">
-        <v>98</v>
+        <v>121.9</v>
       </c>
       <c r="H243" t="n">
-        <v>103.6</v>
+        <v>94.43903756</v>
       </c>
       <c r="I243" t="n">
-        <v>108.6</v>
+        <v>110.8713433</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>101.7</v>
+        <v>102.84612005</v>
       </c>
       <c r="C244" t="n">
-        <v>100.6</v>
+        <v>178.03679485</v>
       </c>
       <c r="D244" t="n">
-        <v>101.4</v>
+        <v>100.73082411</v>
       </c>
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="n">
-        <v>89.2</v>
+        <v>101.85848251</v>
       </c>
       <c r="G244" t="n">
-        <v>101.2</v>
+        <v>118.3</v>
       </c>
       <c r="H244" t="n">
-        <v>106.5</v>
+        <v>93.88812869</v>
       </c>
       <c r="I244" t="n">
-        <v>106.5</v>
+        <v>99.9443279</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>2020年1月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>103.75160177</v>
+        <v>102.31823859</v>
       </c>
       <c r="C245" t="n">
-        <v>176.69469</v>
+        <v>166.71156568</v>
       </c>
       <c r="D245" t="n">
-        <v>100.45954383</v>
+        <v>101.15001677</v>
       </c>
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="n">
-        <v>102.41688857</v>
+        <v>97.26141325</v>
       </c>
       <c r="G245" t="n">
-        <v>120.6</v>
+        <v>114.8</v>
       </c>
       <c r="H245" t="n">
-        <v>94.98365799</v>
+        <v>89.53156140999999</v>
       </c>
       <c r="I245" t="n">
-        <v>117.14019778</v>
+        <v>96.28162709999999</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>102.79186802</v>
+        <v>103.69264846</v>
       </c>
       <c r="C246" t="n">
-        <v>187.56855116</v>
+        <v>157.41550992</v>
       </c>
       <c r="D246" t="n">
-        <v>100.68646849</v>
+        <v>101.50590704</v>
       </c>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="n">
-        <v>100.9828709</v>
+        <v>87.68660336000001</v>
       </c>
       <c r="G246" t="n">
-        <v>121.9</v>
+        <v>110.6</v>
       </c>
       <c r="H246" t="n">
-        <v>94.43903756</v>
+        <v>80.69043492</v>
       </c>
       <c r="I246" t="n">
-        <v>110.8713433</v>
+        <v>91.53007683</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>102.84612005</v>
+        <v>104.7509406</v>
       </c>
       <c r="C247" t="n">
-        <v>178.03679485</v>
+        <v>157.4017088</v>
       </c>
       <c r="D247" t="n">
-        <v>100.73082411</v>
+        <v>101.56990588</v>
       </c>
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="n">
-        <v>101.85848251</v>
+        <v>86.44436208</v>
       </c>
       <c r="G247" t="n">
-        <v>118.3</v>
+        <v>111.1</v>
       </c>
       <c r="H247" t="n">
-        <v>93.88812869</v>
+        <v>70.96767740999999</v>
       </c>
       <c r="I247" t="n">
-        <v>99.9443279</v>
+        <v>104.19560167</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>102.31823859</v>
+        <v>104.73602835</v>
       </c>
       <c r="C248" t="n">
-        <v>166.71156568</v>
+        <v>161.05828151</v>
       </c>
       <c r="D248" t="n">
-        <v>101.15001677</v>
+        <v>101.55198369</v>
       </c>
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="n">
-        <v>97.26141325</v>
+        <v>85.50457278</v>
       </c>
       <c r="G248" t="n">
-        <v>114.8</v>
+        <v>113.2</v>
       </c>
       <c r="H248" t="n">
-        <v>89.53156140999999</v>
+        <v>72.33075943999999</v>
       </c>
       <c r="I248" t="n">
-        <v>96.28162709999999</v>
+        <v>107.94401116</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>103.69264846</v>
+        <v>103.3649305</v>
       </c>
       <c r="C249" t="n">
-        <v>157.41550992</v>
+        <v>142.02939832</v>
       </c>
       <c r="D249" t="n">
-        <v>101.50590704</v>
+        <v>101.50219016</v>
       </c>
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="n">
-        <v>87.68660336000001</v>
+        <v>89.01895312000001</v>
       </c>
       <c r="G249" t="n">
-        <v>110.6</v>
+        <v>111.2</v>
       </c>
       <c r="H249" t="n">
-        <v>80.69043492</v>
+        <v>80.17807741</v>
       </c>
       <c r="I249" t="n">
-        <v>91.53007683</v>
+        <v>111.68346553</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>104.7509406</v>
+        <v>102.55599226</v>
       </c>
       <c r="C250" t="n">
-        <v>157.4017088</v>
+        <v>122.55896291</v>
       </c>
       <c r="D250" t="n">
-        <v>101.56990588</v>
+        <v>101.45972353</v>
       </c>
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="n">
-        <v>86.44436208</v>
+        <v>84.24347962</v>
       </c>
       <c r="G250" t="n">
-        <v>111.1</v>
+        <v>107.9</v>
       </c>
       <c r="H250" t="n">
-        <v>70.96767740999999</v>
+        <v>93.09969273</v>
       </c>
       <c r="I250" t="n">
-        <v>104.19560167</v>
+        <v>117.15490105</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>104.73602835</v>
+        <v>102.5</v>
       </c>
       <c r="C251" t="n">
-        <v>161.05828151</v>
+        <v>102</v>
       </c>
       <c r="D251" t="n">
-        <v>101.55198369</v>
+        <v>101.5</v>
       </c>
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="n">
-        <v>85.50457278</v>
+        <v>83.7</v>
       </c>
       <c r="G251" t="n">
-        <v>113.2</v>
+        <v>102.2</v>
       </c>
       <c r="H251" t="n">
-        <v>72.33075943999999</v>
+        <v>100.4</v>
       </c>
       <c r="I251" t="n">
-        <v>107.94401116</v>
+        <v>116.7</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>103.3649305</v>
+        <v>101</v>
       </c>
       <c r="C252" t="n">
-        <v>142.02939832</v>
+        <v>92.7</v>
       </c>
       <c r="D252" t="n">
-        <v>101.50219016</v>
+        <v>101.4</v>
       </c>
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="n">
-        <v>89.01895312000001</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="G252" t="n">
-        <v>111.2</v>
+        <v>98</v>
       </c>
       <c r="H252" t="n">
-        <v>80.17807741</v>
+        <v>103.6</v>
       </c>
       <c r="I252" t="n">
-        <v>111.68346553</v>
+        <v>108.6</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>102.55599226</v>
+        <v>101.7</v>
       </c>
       <c r="C253" t="n">
-        <v>122.55896291</v>
+        <v>100.6</v>
       </c>
       <c r="D253" t="n">
-        <v>101.45972353</v>
+        <v>101.4</v>
       </c>
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="n">
-        <v>84.24347962</v>
+        <v>89.2</v>
       </c>
       <c r="G253" t="n">
-        <v>107.9</v>
+        <v>101.2</v>
       </c>
       <c r="H253" t="n">
-        <v>93.09969273</v>
+        <v>106.5</v>
       </c>
       <c r="I253" t="n">
-        <v>117.15490105</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>108.3</v>
+        <v>100.2</v>
       </c>
       <c r="C254" t="n">
-        <v>73.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D254" t="n">
-        <v>100.9</v>
+        <v>101.6</v>
       </c>
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="n">
-        <v>112.6</v>
+        <v>101.2</v>
       </c>
       <c r="G254" t="n">
-        <v>97.59999999999999</v>
+        <v>101.6</v>
       </c>
       <c r="H254" t="n">
-        <v>100.5</v>
+        <v>101.3</v>
       </c>
       <c r="I254" t="n">
-        <v>115.9</v>
+        <v>110.9</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>108.5</v>
+        <v>105.9</v>
       </c>
       <c r="C255" t="n">
-        <v>80.3</v>
+        <v>92.7</v>
       </c>
       <c r="D255" t="n">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="n">
-        <v>117.6</v>
+        <v>103</v>
       </c>
       <c r="G255" t="n">
-        <v>101.6</v>
+        <v>99.8</v>
       </c>
       <c r="H255" t="n">
-        <v>104.1</v>
+        <v>103.1</v>
       </c>
       <c r="I255" t="n">
-        <v>130.6</v>
+        <v>103.3</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>107.9</v>
+        <v>108.1</v>
       </c>
       <c r="C256" t="n">
-        <v>77.8</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="D256" t="n">
-        <v>102</v>
+        <v>101.4</v>
       </c>
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="n">
-        <v>112.7</v>
+        <v>103.4</v>
       </c>
       <c r="G256" t="n">
-        <v>98.8</v>
+        <v>99.3</v>
       </c>
       <c r="H256" t="n">
-        <v>104.8</v>
+        <v>104</v>
       </c>
       <c r="I256" t="n">
-        <v>110.6</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>2021年1月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>100.2</v>
+        <v>111.3</v>
       </c>
       <c r="C257" t="n">
-        <v>99.59999999999999</v>
+        <v>89.7</v>
       </c>
       <c r="D257" t="n">
-        <v>101.6</v>
+        <v>101.1</v>
       </c>
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="n">
-        <v>101.2</v>
+        <v>106.8</v>
       </c>
       <c r="G257" t="n">
-        <v>101.6</v>
+        <v>99.3</v>
       </c>
       <c r="H257" t="n">
-        <v>101.3</v>
+        <v>102.7</v>
       </c>
       <c r="I257" t="n">
-        <v>110.9</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>105.9</v>
+        <v>113.8</v>
       </c>
       <c r="C258" t="n">
-        <v>92.7</v>
+        <v>88.7</v>
       </c>
       <c r="D258" t="n">
-        <v>101.4</v>
+        <v>100.8</v>
       </c>
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="n">
-        <v>103</v>
+        <v>114.3</v>
       </c>
       <c r="G258" t="n">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="H258" t="n">
-        <v>103.1</v>
+        <v>101.4</v>
       </c>
       <c r="I258" t="n">
-        <v>103.3</v>
+        <v>105.4</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>108.1</v>
+        <v>114.2</v>
       </c>
       <c r="C259" t="n">
-        <v>90.90000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="D259" t="n">
-        <v>101.4</v>
+        <v>100.7</v>
       </c>
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="n">
-        <v>103.4</v>
+        <v>117.9</v>
       </c>
       <c r="G259" t="n">
-        <v>99.3</v>
+        <v>98.3</v>
       </c>
       <c r="H259" t="n">
-        <v>104</v>
+        <v>103.1</v>
       </c>
       <c r="I259" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>111.3</v>
+        <v>113.8</v>
       </c>
       <c r="C260" t="n">
-        <v>89.7</v>
+        <v>74.5</v>
       </c>
       <c r="D260" t="n">
-        <v>101.1</v>
+        <v>100.7</v>
       </c>
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="n">
-        <v>106.8</v>
+        <v>115.6</v>
       </c>
       <c r="G260" t="n">
-        <v>99.3</v>
+        <v>96.3</v>
       </c>
       <c r="H260" t="n">
-        <v>102.7</v>
+        <v>105.2</v>
       </c>
       <c r="I260" t="n">
-        <v>98.7</v>
+        <v>96</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>113.8</v>
+        <v>111.7</v>
       </c>
       <c r="C261" t="n">
-        <v>88.7</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D261" t="n">
         <v>100.8</v>
       </c>
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="n">
-        <v>114.3</v>
+        <v>113.9</v>
       </c>
       <c r="G261" t="n">
-        <v>100.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="H261" t="n">
-        <v>101.4</v>
+        <v>105</v>
       </c>
       <c r="I261" t="n">
-        <v>105.4</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>114.2</v>
+        <v>109.8</v>
       </c>
       <c r="C262" t="n">
-        <v>80.5</v>
+        <v>71.5</v>
       </c>
       <c r="D262" t="n">
         <v>100.7</v>
       </c>
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="n">
-        <v>117.9</v>
+        <v>112.6</v>
       </c>
       <c r="G262" t="n">
-        <v>98.3</v>
+        <v>94.8</v>
       </c>
       <c r="H262" t="n">
-        <v>103.1</v>
+        <v>99.2</v>
       </c>
       <c r="I262" t="n">
-        <v>100.1</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>113.8</v>
+        <v>108.3</v>
       </c>
       <c r="C263" t="n">
-        <v>74.5</v>
+        <v>73.3</v>
       </c>
       <c r="D263" t="n">
-        <v>100.7</v>
+        <v>100.9</v>
       </c>
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="n">
-        <v>115.6</v>
+        <v>112.6</v>
       </c>
       <c r="G263" t="n">
-        <v>96.3</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="H263" t="n">
-        <v>105.2</v>
+        <v>100.5</v>
       </c>
       <c r="I263" t="n">
-        <v>96</v>
+        <v>115.9</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>111.7</v>
+        <v>108.5</v>
       </c>
       <c r="C264" t="n">
-        <v>72.90000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="D264" t="n">
-        <v>100.8</v>
+        <v>101.5</v>
       </c>
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="n">
-        <v>113.9</v>
+        <v>117.6</v>
       </c>
       <c r="G264" t="n">
-        <v>95.90000000000001</v>
+        <v>101.6</v>
       </c>
       <c r="H264" t="n">
-        <v>105</v>
+        <v>104.1</v>
       </c>
       <c r="I264" t="n">
-        <v>98.5</v>
+        <v>130.6</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>109.8</v>
+        <v>107.9</v>
       </c>
       <c r="C265" t="n">
-        <v>71.5</v>
+        <v>77.8</v>
       </c>
       <c r="D265" t="n">
-        <v>100.7</v>
+        <v>102</v>
       </c>
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="n">
-        <v>112.6</v>
+        <v>112.7</v>
       </c>
       <c r="G265" t="n">
-        <v>94.8</v>
+        <v>98.8</v>
       </c>
       <c r="H265" t="n">
-        <v>99.2</v>
+        <v>104.8</v>
       </c>
       <c r="I265" t="n">
-        <v>97.5</v>
+        <v>110.6</v>
       </c>
     </row>
   </sheetData>
